--- a/experiment_results/DataV2_0.5/Elevator/ENABLE_NORMALIZATION/AGGREGATION_ARITHMETIC_MEAN/4wise/1Bug.xlsx
+++ b/experiment_results/DataV2_0.5/Elevator/ENABLE_NORMALIZATION/AGGREGATION_ARITHMETIC_MEAN/4wise/1Bug.xlsx
@@ -868,10 +868,10 @@
         <v>25</v>
       </c>
       <c r="C10">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="D10">
-        <v>5.357142857142857</v>
+        <v>8.035714285714286</v>
       </c>
       <c r="E10">
         <v>223</v>
@@ -1694,19 +1694,19 @@
         <v>25</v>
       </c>
       <c r="C10">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="D10">
-        <v>5.357142857142857</v>
+        <v>9.598214285714286</v>
       </c>
       <c r="E10">
         <v>223</v>
       </c>
       <c r="F10">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="G10">
-        <v>7.366071428571429</v>
+        <v>12.72321428571428</v>
       </c>
       <c r="H10">
         <v>88</v>
@@ -2520,19 +2520,19 @@
         <v>25</v>
       </c>
       <c r="C10">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="D10">
-        <v>7.366071428571429</v>
+        <v>9.598214285714286</v>
       </c>
       <c r="E10">
         <v>223</v>
       </c>
       <c r="F10">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="G10">
-        <v>9.821428571428571</v>
+        <v>12.72321428571428</v>
       </c>
       <c r="H10">
         <v>88</v>
@@ -2596,10 +2596,10 @@
         <v>25</v>
       </c>
       <c r="C12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D12">
-        <v>0.6696428571428571</v>
+        <v>0.4464285714285714</v>
       </c>
       <c r="E12">
         <v>244</v>
@@ -3039,19 +3039,19 @@
         <v>14</v>
       </c>
       <c r="C2">
-        <v>6</v>
+        <v>44</v>
       </c>
       <c r="D2">
-        <v>1.339285714285714</v>
+        <v>9.821428571428571</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>6</v>
+        <v>44</v>
       </c>
       <c r="G2">
-        <v>1.339285714285714</v>
+        <v>9.821428571428571</v>
       </c>
       <c r="H2">
         <v>220</v>
@@ -3115,19 +3115,19 @@
         <v>18</v>
       </c>
       <c r="C4">
-        <v>6</v>
+        <v>239</v>
       </c>
       <c r="D4">
-        <v>1.339285714285714</v>
+        <v>53.34821428571429</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>6</v>
+        <v>239</v>
       </c>
       <c r="G4">
-        <v>1.339285714285714</v>
+        <v>53.34821428571429</v>
       </c>
       <c r="H4">
         <v>439</v>
@@ -3153,19 +3153,19 @@
         <v>18</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="D5">
-        <v>0.4464285714285714</v>
+        <v>3.348214285714286</v>
       </c>
       <c r="E5">
         <v>229</v>
       </c>
       <c r="F5">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="G5">
-        <v>0.6696428571428571</v>
+        <v>8.258928571428571</v>
       </c>
       <c r="H5">
         <v>418</v>
@@ -3346,19 +3346,19 @@
         <v>25</v>
       </c>
       <c r="C10">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D10">
-        <v>3.348214285714286</v>
+        <v>2.455357142857143</v>
       </c>
       <c r="E10">
         <v>223</v>
       </c>
       <c r="F10">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="G10">
-        <v>5.133928571428571</v>
+        <v>7.142857142857142</v>
       </c>
       <c r="H10">
         <v>323</v>
@@ -3422,19 +3422,19 @@
         <v>25</v>
       </c>
       <c r="C12">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D12">
-        <v>0.6696428571428571</v>
+        <v>1.339285714285714</v>
       </c>
       <c r="E12">
         <v>244</v>
       </c>
       <c r="F12">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G12">
-        <v>0.8928571428571428</v>
+        <v>1.785714285714286</v>
       </c>
       <c r="H12">
         <v>275</v>
@@ -3536,19 +3536,19 @@
         <v>34</v>
       </c>
       <c r="C15">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="D15">
-        <v>2.232142857142857</v>
+        <v>6.696428571428571</v>
       </c>
       <c r="E15">
         <v>448</v>
       </c>
       <c r="F15">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="G15">
-        <v>2.232142857142857</v>
+        <v>6.696428571428571</v>
       </c>
       <c r="H15">
         <v>296</v>
@@ -3577,19 +3577,19 @@
         <v>36</v>
       </c>
       <c r="C16">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="D16">
-        <v>2.678571428571428</v>
+        <v>7.366071428571429</v>
       </c>
       <c r="E16">
         <v>448</v>
       </c>
       <c r="F16">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="G16">
-        <v>2.678571428571428</v>
+        <v>7.366071428571429</v>
       </c>
       <c r="H16">
         <v>393</v>
@@ -3865,19 +3865,19 @@
         <v>14</v>
       </c>
       <c r="C2">
-        <v>6</v>
+        <v>44</v>
       </c>
       <c r="D2">
-        <v>1.339285714285714</v>
+        <v>9.821428571428571</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>6</v>
+        <v>44</v>
       </c>
       <c r="G2">
-        <v>1.339285714285714</v>
+        <v>9.821428571428571</v>
       </c>
       <c r="H2">
         <v>220</v>
@@ -3941,19 +3941,19 @@
         <v>18</v>
       </c>
       <c r="C4">
-        <v>6</v>
+        <v>239</v>
       </c>
       <c r="D4">
-        <v>1.339285714285714</v>
+        <v>53.34821428571429</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>6</v>
+        <v>239</v>
       </c>
       <c r="G4">
-        <v>1.339285714285714</v>
+        <v>53.34821428571429</v>
       </c>
       <c r="H4">
         <v>439</v>
@@ -3979,19 +3979,19 @@
         <v>18</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="D5">
-        <v>0.4464285714285714</v>
+        <v>3.348214285714286</v>
       </c>
       <c r="E5">
         <v>229</v>
       </c>
       <c r="F5">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="G5">
-        <v>0.6696428571428571</v>
+        <v>8.258928571428571</v>
       </c>
       <c r="H5">
         <v>418</v>
@@ -4172,19 +4172,19 @@
         <v>25</v>
       </c>
       <c r="C10">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D10">
-        <v>3.348214285714286</v>
+        <v>2.455357142857143</v>
       </c>
       <c r="E10">
         <v>223</v>
       </c>
       <c r="F10">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="G10">
-        <v>5.133928571428571</v>
+        <v>7.142857142857142</v>
       </c>
       <c r="H10">
         <v>323</v>
@@ -4248,19 +4248,19 @@
         <v>25</v>
       </c>
       <c r="C12">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D12">
-        <v>0.6696428571428571</v>
+        <v>1.339285714285714</v>
       </c>
       <c r="E12">
         <v>244</v>
       </c>
       <c r="F12">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G12">
-        <v>0.8928571428571428</v>
+        <v>1.785714285714286</v>
       </c>
       <c r="H12">
         <v>275</v>
@@ -4362,19 +4362,19 @@
         <v>34</v>
       </c>
       <c r="C15">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="D15">
-        <v>2.232142857142857</v>
+        <v>6.696428571428571</v>
       </c>
       <c r="E15">
         <v>448</v>
       </c>
       <c r="F15">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="G15">
-        <v>2.232142857142857</v>
+        <v>6.696428571428571</v>
       </c>
       <c r="H15">
         <v>296</v>
@@ -4403,19 +4403,19 @@
         <v>36</v>
       </c>
       <c r="C16">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="D16">
-        <v>2.678571428571428</v>
+        <v>7.366071428571429</v>
       </c>
       <c r="E16">
         <v>448</v>
       </c>
       <c r="F16">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="G16">
-        <v>2.678571428571428</v>
+        <v>7.366071428571429</v>
       </c>
       <c r="H16">
         <v>393</v>
@@ -4843,19 +4843,19 @@
         <v>21</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D6">
-        <v>0.4464285714285714</v>
+        <v>0.8928571428571428</v>
       </c>
       <c r="E6">
         <v>448</v>
       </c>
       <c r="F6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G6">
-        <v>0.4464285714285714</v>
+        <v>0.8928571428571428</v>
       </c>
       <c r="H6">
         <v>6</v>
@@ -4998,19 +4998,19 @@
         <v>25</v>
       </c>
       <c r="C10">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D10">
-        <v>1.785714285714286</v>
+        <v>5.357142857142857</v>
       </c>
       <c r="E10">
         <v>223</v>
       </c>
       <c r="F10">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="G10">
-        <v>2.901785714285714</v>
+        <v>7.366071428571429</v>
       </c>
       <c r="H10">
         <v>35</v>
@@ -5074,19 +5074,19 @@
         <v>25</v>
       </c>
       <c r="C12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D12">
-        <v>0.4464285714285714</v>
+        <v>0.2232142857142857</v>
       </c>
       <c r="E12">
         <v>244</v>
       </c>
       <c r="F12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.4464285714285714</v>
+        <v>0.2232142857142857</v>
       </c>
       <c r="H12">
         <v>31</v>
@@ -5631,10 +5631,10 @@
         <v>18</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D5">
-        <v>0.4464285714285714</v>
+        <v>0.6696428571428571</v>
       </c>
       <c r="E5">
         <v>229</v>
@@ -7169,19 +7169,19 @@
         <v>14</v>
       </c>
       <c r="C2">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="D2">
-        <v>1.339285714285714</v>
+        <v>11.60714285714286</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="G2">
-        <v>1.339285714285714</v>
+        <v>11.60714285714286</v>
       </c>
       <c r="H2">
         <v>229</v>
@@ -7245,19 +7245,19 @@
         <v>18</v>
       </c>
       <c r="C4">
-        <v>7</v>
+        <v>363</v>
       </c>
       <c r="D4">
-        <v>1.5625</v>
+        <v>81.02678571428571</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>7</v>
+        <v>363</v>
       </c>
       <c r="G4">
-        <v>1.5625</v>
+        <v>81.02678571428571</v>
       </c>
       <c r="H4">
         <v>439</v>
@@ -7283,19 +7283,19 @@
         <v>18</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="D5">
-        <v>0.6696428571428571</v>
+        <v>4.017857142857143</v>
       </c>
       <c r="E5">
         <v>229</v>
       </c>
       <c r="F5">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="G5">
-        <v>1.116071428571429</v>
+        <v>11.16071428571429</v>
       </c>
       <c r="H5">
         <v>420</v>
@@ -7321,19 +7321,19 @@
         <v>21</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D6">
-        <v>0.4464285714285714</v>
+        <v>1.339285714285714</v>
       </c>
       <c r="E6">
         <v>448</v>
       </c>
       <c r="F6">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G6">
-        <v>0.4464285714285714</v>
+        <v>1.339285714285714</v>
       </c>
       <c r="H6">
         <v>395</v>
@@ -7362,19 +7362,19 @@
         <v>23</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="D7">
-        <v>0.4464285714285714</v>
+        <v>3.794642857142857</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="G7">
-        <v>0.4464285714285714</v>
+        <v>3.794642857142857</v>
       </c>
       <c r="H7">
         <v>148</v>
@@ -7476,19 +7476,19 @@
         <v>25</v>
       </c>
       <c r="C10">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D10">
-        <v>2.232142857142857</v>
+        <v>2.455357142857143</v>
       </c>
       <c r="E10">
         <v>223</v>
       </c>
       <c r="F10">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="G10">
-        <v>3.348214285714286</v>
+        <v>9.821428571428571</v>
       </c>
       <c r="H10">
         <v>336</v>
@@ -7523,10 +7523,10 @@
         <v>86</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="G11">
-        <v>0.2232142857142857</v>
+        <v>3.125</v>
       </c>
       <c r="H11">
         <v>224</v>
@@ -7552,19 +7552,19 @@
         <v>25</v>
       </c>
       <c r="C12">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D12">
-        <v>0.6696428571428571</v>
+        <v>1.339285714285714</v>
       </c>
       <c r="E12">
         <v>244</v>
       </c>
       <c r="F12">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="G12">
-        <v>0.8928571428571428</v>
+        <v>7.366071428571429</v>
       </c>
       <c r="H12">
         <v>331</v>
@@ -7628,19 +7628,19 @@
         <v>18</v>
       </c>
       <c r="C14">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D14">
-        <v>2.901785714285714</v>
+        <v>3.125</v>
       </c>
       <c r="E14">
         <v>227</v>
       </c>
       <c r="F14">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G14">
-        <v>4.464285714285714</v>
+        <v>4.6875</v>
       </c>
       <c r="H14">
         <v>176</v>
@@ -7666,19 +7666,19 @@
         <v>34</v>
       </c>
       <c r="C15">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="D15">
-        <v>1.339285714285714</v>
+        <v>6.696428571428571</v>
       </c>
       <c r="E15">
         <v>448</v>
       </c>
       <c r="F15">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="G15">
-        <v>1.339285714285714</v>
+        <v>6.696428571428571</v>
       </c>
       <c r="H15">
         <v>348</v>
@@ -7707,19 +7707,19 @@
         <v>36</v>
       </c>
       <c r="C16">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="D16">
-        <v>2.232142857142857</v>
+        <v>8.928571428571429</v>
       </c>
       <c r="E16">
         <v>448</v>
       </c>
       <c r="F16">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="G16">
-        <v>2.232142857142857</v>
+        <v>8.928571428571429</v>
       </c>
       <c r="H16">
         <v>399</v>
@@ -7757,10 +7757,10 @@
         <v>246</v>
       </c>
       <c r="F17">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G17">
-        <v>0.6696428571428571</v>
+        <v>1.339285714285714</v>
       </c>
       <c r="H17">
         <v>130</v>
@@ -7900,19 +7900,19 @@
         <v>21</v>
       </c>
       <c r="C21">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D21">
-        <v>1.785714285714286</v>
+        <v>2.232142857142857</v>
       </c>
       <c r="E21">
         <v>448</v>
       </c>
       <c r="F21">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G21">
-        <v>1.785714285714286</v>
+        <v>2.232142857142857</v>
       </c>
       <c r="H21">
         <v>395</v>
@@ -8264,19 +8264,19 @@
         <v>16</v>
       </c>
       <c r="C9">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D9">
-        <v>1.339285714285714</v>
+        <v>1.5625</v>
       </c>
       <c r="E9">
         <v>288</v>
       </c>
       <c r="F9">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G9">
-        <v>1.785714285714286</v>
+        <v>2.008928571428572</v>
       </c>
       <c r="H9">
         <v>9</v>
@@ -8302,19 +8302,19 @@
         <v>25</v>
       </c>
       <c r="C10">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="D10">
-        <v>7.366071428571429</v>
+        <v>9.598214285714286</v>
       </c>
       <c r="E10">
         <v>223</v>
       </c>
       <c r="F10">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="G10">
-        <v>9.821428571428571</v>
+        <v>13.61607142857143</v>
       </c>
       <c r="H10">
         <v>88</v>
@@ -8378,19 +8378,19 @@
         <v>25</v>
       </c>
       <c r="C12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D12">
-        <v>0.6696428571428571</v>
+        <v>0.2232142857142857</v>
       </c>
       <c r="E12">
         <v>244</v>
       </c>
       <c r="F12">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.8928571428571428</v>
+        <v>0.2232142857142857</v>
       </c>
       <c r="H12">
         <v>63</v>
@@ -9128,19 +9128,19 @@
         <v>25</v>
       </c>
       <c r="C10">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="D10">
-        <v>5.357142857142857</v>
+        <v>9.598214285714286</v>
       </c>
       <c r="E10">
         <v>223</v>
       </c>
       <c r="F10">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="G10">
-        <v>7.366071428571429</v>
+        <v>12.72321428571428</v>
       </c>
       <c r="H10">
         <v>88</v>
@@ -9916,19 +9916,19 @@
         <v>16</v>
       </c>
       <c r="C9">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D9">
-        <v>1.116071428571429</v>
+        <v>1.5625</v>
       </c>
       <c r="E9">
         <v>288</v>
       </c>
       <c r="F9">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G9">
-        <v>1.5625</v>
+        <v>2.008928571428572</v>
       </c>
       <c r="H9">
         <v>8</v>
@@ -9963,10 +9963,10 @@
         <v>223</v>
       </c>
       <c r="F10">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G10">
-        <v>7.142857142857142</v>
+        <v>7.366071428571429</v>
       </c>
       <c r="H10">
         <v>34</v>
@@ -10473,19 +10473,19 @@
         <v>14</v>
       </c>
       <c r="C2">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="D2">
-        <v>1.339285714285714</v>
+        <v>11.60714285714286</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="G2">
-        <v>1.339285714285714</v>
+        <v>11.60714285714286</v>
       </c>
       <c r="H2">
         <v>229</v>
@@ -10549,19 +10549,19 @@
         <v>18</v>
       </c>
       <c r="C4">
-        <v>7</v>
+        <v>412</v>
       </c>
       <c r="D4">
-        <v>1.5625</v>
+        <v>91.96428571428571</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>7</v>
+        <v>412</v>
       </c>
       <c r="G4">
-        <v>1.5625</v>
+        <v>91.96428571428571</v>
       </c>
       <c r="H4">
         <v>439</v>
@@ -10587,19 +10587,19 @@
         <v>18</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="D5">
-        <v>0.4464285714285714</v>
+        <v>3.348214285714286</v>
       </c>
       <c r="E5">
         <v>229</v>
       </c>
       <c r="F5">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="G5">
-        <v>0.6696428571428571</v>
+        <v>8.928571428571429</v>
       </c>
       <c r="H5">
         <v>420</v>
@@ -10625,19 +10625,19 @@
         <v>21</v>
       </c>
       <c r="C6">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D6">
-        <v>0.8928571428571428</v>
+        <v>1.339285714285714</v>
       </c>
       <c r="E6">
         <v>448</v>
       </c>
       <c r="F6">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G6">
-        <v>0.8928571428571428</v>
+        <v>1.339285714285714</v>
       </c>
       <c r="H6">
         <v>395</v>
@@ -10666,19 +10666,19 @@
         <v>23</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="D7">
-        <v>0.4464285714285714</v>
+        <v>3.794642857142857</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="G7">
-        <v>0.4464285714285714</v>
+        <v>3.794642857142857</v>
       </c>
       <c r="H7">
         <v>148</v>
@@ -10780,19 +10780,19 @@
         <v>25</v>
       </c>
       <c r="C10">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D10">
-        <v>2.901785714285714</v>
+        <v>3.125</v>
       </c>
       <c r="E10">
         <v>223</v>
       </c>
       <c r="F10">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="G10">
-        <v>4.464285714285714</v>
+        <v>11.38392857142857</v>
       </c>
       <c r="H10">
         <v>336</v>
@@ -10827,10 +10827,10 @@
         <v>86</v>
       </c>
       <c r="F11">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="G11">
-        <v>0.6696428571428571</v>
+        <v>5.357142857142857</v>
       </c>
       <c r="H11">
         <v>224</v>
@@ -10856,19 +10856,19 @@
         <v>25</v>
       </c>
       <c r="C12">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D12">
-        <v>0.6696428571428571</v>
+        <v>1.5625</v>
       </c>
       <c r="E12">
         <v>244</v>
       </c>
       <c r="F12">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="G12">
-        <v>0.8928571428571428</v>
+        <v>8.482142857142858</v>
       </c>
       <c r="H12">
         <v>331</v>
@@ -10932,19 +10932,19 @@
         <v>18</v>
       </c>
       <c r="C14">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D14">
-        <v>1.5625</v>
+        <v>2.455357142857143</v>
       </c>
       <c r="E14">
         <v>227</v>
       </c>
       <c r="F14">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G14">
-        <v>2.455357142857143</v>
+        <v>3.571428571428571</v>
       </c>
       <c r="H14">
         <v>176</v>
@@ -10970,19 +10970,19 @@
         <v>34</v>
       </c>
       <c r="C15">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="D15">
-        <v>2.232142857142857</v>
+        <v>8.928571428571429</v>
       </c>
       <c r="E15">
         <v>448</v>
       </c>
       <c r="F15">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="G15">
-        <v>2.232142857142857</v>
+        <v>8.928571428571429</v>
       </c>
       <c r="H15">
         <v>348</v>
@@ -11011,19 +11011,19 @@
         <v>36</v>
       </c>
       <c r="C16">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="D16">
-        <v>2.678571428571428</v>
+        <v>9.821428571428571</v>
       </c>
       <c r="E16">
         <v>448</v>
       </c>
       <c r="F16">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="G16">
-        <v>2.678571428571428</v>
+        <v>9.821428571428571</v>
       </c>
       <c r="H16">
         <v>399</v>
@@ -11061,10 +11061,10 @@
         <v>246</v>
       </c>
       <c r="F17">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G17">
-        <v>0.6696428571428571</v>
+        <v>1.339285714285714</v>
       </c>
       <c r="H17">
         <v>130</v>
@@ -11204,19 +11204,19 @@
         <v>21</v>
       </c>
       <c r="C21">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D21">
-        <v>1.785714285714286</v>
+        <v>3.571428571428571</v>
       </c>
       <c r="E21">
         <v>448</v>
       </c>
       <c r="F21">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="G21">
-        <v>1.785714285714286</v>
+        <v>3.571428571428571</v>
       </c>
       <c r="H21">
         <v>395</v>
@@ -11299,19 +11299,19 @@
         <v>14</v>
       </c>
       <c r="C2">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="D2">
-        <v>1.339285714285714</v>
+        <v>11.60714285714286</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="G2">
-        <v>1.339285714285714</v>
+        <v>11.60714285714286</v>
       </c>
       <c r="H2">
         <v>229</v>
@@ -11375,19 +11375,19 @@
         <v>18</v>
       </c>
       <c r="C4">
-        <v>7</v>
+        <v>412</v>
       </c>
       <c r="D4">
-        <v>1.5625</v>
+        <v>91.96428571428571</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>7</v>
+        <v>412</v>
       </c>
       <c r="G4">
-        <v>1.5625</v>
+        <v>91.96428571428571</v>
       </c>
       <c r="H4">
         <v>439</v>
@@ -11413,19 +11413,19 @@
         <v>18</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="D5">
-        <v>0.4464285714285714</v>
+        <v>3.348214285714286</v>
       </c>
       <c r="E5">
         <v>229</v>
       </c>
       <c r="F5">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="G5">
-        <v>0.6696428571428571</v>
+        <v>8.928571428571429</v>
       </c>
       <c r="H5">
         <v>420</v>
@@ -11451,19 +11451,19 @@
         <v>21</v>
       </c>
       <c r="C6">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D6">
-        <v>0.8928571428571428</v>
+        <v>1.339285714285714</v>
       </c>
       <c r="E6">
         <v>448</v>
       </c>
       <c r="F6">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G6">
-        <v>0.8928571428571428</v>
+        <v>1.339285714285714</v>
       </c>
       <c r="H6">
         <v>395</v>
@@ -11492,19 +11492,19 @@
         <v>23</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="D7">
-        <v>0.4464285714285714</v>
+        <v>3.794642857142857</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="G7">
-        <v>0.4464285714285714</v>
+        <v>3.794642857142857</v>
       </c>
       <c r="H7">
         <v>148</v>
@@ -11606,19 +11606,19 @@
         <v>25</v>
       </c>
       <c r="C10">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D10">
-        <v>2.901785714285714</v>
+        <v>3.125</v>
       </c>
       <c r="E10">
         <v>223</v>
       </c>
       <c r="F10">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="G10">
-        <v>4.464285714285714</v>
+        <v>11.38392857142857</v>
       </c>
       <c r="H10">
         <v>336</v>
@@ -11653,10 +11653,10 @@
         <v>86</v>
       </c>
       <c r="F11">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="G11">
-        <v>0.6696428571428571</v>
+        <v>5.357142857142857</v>
       </c>
       <c r="H11">
         <v>224</v>
@@ -11682,19 +11682,19 @@
         <v>25</v>
       </c>
       <c r="C12">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D12">
-        <v>0.6696428571428571</v>
+        <v>1.5625</v>
       </c>
       <c r="E12">
         <v>244</v>
       </c>
       <c r="F12">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="G12">
-        <v>0.8928571428571428</v>
+        <v>8.482142857142858</v>
       </c>
       <c r="H12">
         <v>331</v>
@@ -11758,19 +11758,19 @@
         <v>18</v>
       </c>
       <c r="C14">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D14">
-        <v>1.5625</v>
+        <v>2.455357142857143</v>
       </c>
       <c r="E14">
         <v>227</v>
       </c>
       <c r="F14">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G14">
-        <v>2.455357142857143</v>
+        <v>3.571428571428571</v>
       </c>
       <c r="H14">
         <v>176</v>
@@ -11796,19 +11796,19 @@
         <v>34</v>
       </c>
       <c r="C15">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="D15">
-        <v>2.232142857142857</v>
+        <v>8.928571428571429</v>
       </c>
       <c r="E15">
         <v>448</v>
       </c>
       <c r="F15">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="G15">
-        <v>2.232142857142857</v>
+        <v>8.928571428571429</v>
       </c>
       <c r="H15">
         <v>348</v>
@@ -11837,19 +11837,19 @@
         <v>36</v>
       </c>
       <c r="C16">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="D16">
-        <v>2.678571428571428</v>
+        <v>9.821428571428571</v>
       </c>
       <c r="E16">
         <v>448</v>
       </c>
       <c r="F16">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="G16">
-        <v>2.678571428571428</v>
+        <v>9.821428571428571</v>
       </c>
       <c r="H16">
         <v>399</v>
@@ -11887,10 +11887,10 @@
         <v>246</v>
       </c>
       <c r="F17">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G17">
-        <v>0.6696428571428571</v>
+        <v>1.339285714285714</v>
       </c>
       <c r="H17">
         <v>130</v>
@@ -12030,19 +12030,19 @@
         <v>21</v>
       </c>
       <c r="C21">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D21">
-        <v>1.785714285714286</v>
+        <v>3.571428571428571</v>
       </c>
       <c r="E21">
         <v>448</v>
       </c>
       <c r="F21">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="G21">
-        <v>1.785714285714286</v>
+        <v>3.571428571428571</v>
       </c>
       <c r="H21">
         <v>395</v>
@@ -12125,19 +12125,19 @@
         <v>14</v>
       </c>
       <c r="C2">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="D2">
-        <v>1.339285714285714</v>
+        <v>11.60714285714286</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="G2">
-        <v>1.339285714285714</v>
+        <v>11.60714285714286</v>
       </c>
       <c r="H2">
         <v>229</v>
@@ -12201,19 +12201,19 @@
         <v>18</v>
       </c>
       <c r="C4">
-        <v>18</v>
+        <v>352</v>
       </c>
       <c r="D4">
-        <v>4.017857142857143</v>
+        <v>78.57142857142857</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>18</v>
+        <v>352</v>
       </c>
       <c r="G4">
-        <v>4.017857142857143</v>
+        <v>78.57142857142857</v>
       </c>
       <c r="H4">
         <v>439</v>
@@ -12239,19 +12239,19 @@
         <v>18</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="D5">
-        <v>0.6696428571428571</v>
+        <v>5.133928571428571</v>
       </c>
       <c r="E5">
         <v>229</v>
       </c>
       <c r="F5">
-        <v>5</v>
+        <v>61</v>
       </c>
       <c r="G5">
-        <v>1.116071428571429</v>
+        <v>13.61607142857143</v>
       </c>
       <c r="H5">
         <v>420</v>
@@ -12277,19 +12277,19 @@
         <v>21</v>
       </c>
       <c r="C6">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D6">
-        <v>0.8928571428571428</v>
+        <v>1.5625</v>
       </c>
       <c r="E6">
         <v>448</v>
       </c>
       <c r="F6">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G6">
-        <v>0.8928571428571428</v>
+        <v>1.5625</v>
       </c>
       <c r="H6">
         <v>395</v>
@@ -12318,19 +12318,19 @@
         <v>23</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="D7">
-        <v>0.4464285714285714</v>
+        <v>4.017857142857143</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="G7">
-        <v>0.4464285714285714</v>
+        <v>4.017857142857143</v>
       </c>
       <c r="H7">
         <v>148</v>
@@ -12432,19 +12432,19 @@
         <v>25</v>
       </c>
       <c r="C10">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D10">
-        <v>2.232142857142857</v>
+        <v>2.455357142857143</v>
       </c>
       <c r="E10">
         <v>223</v>
       </c>
       <c r="F10">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="G10">
-        <v>3.348214285714286</v>
+        <v>10.04464285714286</v>
       </c>
       <c r="H10">
         <v>336</v>
@@ -12479,10 +12479,10 @@
         <v>86</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="G11">
-        <v>0.2232142857142857</v>
+        <v>3.125</v>
       </c>
       <c r="H11">
         <v>224</v>
@@ -12508,19 +12508,19 @@
         <v>25</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D12">
-        <v>0.2232142857142857</v>
+        <v>0.4464285714285714</v>
       </c>
       <c r="E12">
         <v>244</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="G12">
-        <v>0.2232142857142857</v>
+        <v>6.473214285714286</v>
       </c>
       <c r="H12">
         <v>331</v>
@@ -12584,19 +12584,19 @@
         <v>18</v>
       </c>
       <c r="C14">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="D14">
-        <v>3.125</v>
+        <v>5.133928571428571</v>
       </c>
       <c r="E14">
         <v>227</v>
       </c>
       <c r="F14">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="G14">
-        <v>4.6875</v>
+        <v>6.919642857142858</v>
       </c>
       <c r="H14">
         <v>176</v>
@@ -12622,19 +12622,19 @@
         <v>34</v>
       </c>
       <c r="C15">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="D15">
-        <v>1.339285714285714</v>
+        <v>6.25</v>
       </c>
       <c r="E15">
         <v>448</v>
       </c>
       <c r="F15">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="G15">
-        <v>1.339285714285714</v>
+        <v>6.25</v>
       </c>
       <c r="H15">
         <v>348</v>
@@ -12663,19 +12663,19 @@
         <v>36</v>
       </c>
       <c r="C16">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="D16">
-        <v>1.785714285714286</v>
+        <v>6.919642857142858</v>
       </c>
       <c r="E16">
         <v>448</v>
       </c>
       <c r="F16">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="G16">
-        <v>1.785714285714286</v>
+        <v>6.919642857142858</v>
       </c>
       <c r="H16">
         <v>399</v>
@@ -12704,19 +12704,19 @@
         <v>23</v>
       </c>
       <c r="C17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D17">
-        <v>0.4464285714285714</v>
+        <v>0.6696428571428571</v>
       </c>
       <c r="E17">
         <v>246</v>
       </c>
       <c r="F17">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G17">
-        <v>0.6696428571428571</v>
+        <v>1.5625</v>
       </c>
       <c r="H17">
         <v>130</v>
@@ -12856,19 +12856,19 @@
         <v>21</v>
       </c>
       <c r="C21">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D21">
-        <v>1.785714285714286</v>
+        <v>3.571428571428571</v>
       </c>
       <c r="E21">
         <v>448</v>
       </c>
       <c r="F21">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="G21">
-        <v>1.785714285714286</v>
+        <v>3.571428571428571</v>
       </c>
       <c r="H21">
         <v>395</v>
@@ -13258,19 +13258,19 @@
         <v>25</v>
       </c>
       <c r="C10">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D10">
-        <v>1.116071428571429</v>
+        <v>0.8928571428571428</v>
       </c>
       <c r="E10">
         <v>223</v>
       </c>
       <c r="F10">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G10">
-        <v>1.5625</v>
+        <v>1.116071428571429</v>
       </c>
       <c r="H10">
         <v>5</v>
@@ -14603,19 +14603,19 @@
         <v>14</v>
       </c>
       <c r="C2">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="D2">
-        <v>1.339285714285714</v>
+        <v>11.60714285714286</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="G2">
-        <v>1.339285714285714</v>
+        <v>11.60714285714286</v>
       </c>
       <c r="H2">
         <v>229</v>
@@ -14679,19 +14679,19 @@
         <v>18</v>
       </c>
       <c r="C4">
-        <v>7</v>
+        <v>412</v>
       </c>
       <c r="D4">
-        <v>1.5625</v>
+        <v>91.96428571428571</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>7</v>
+        <v>412</v>
       </c>
       <c r="G4">
-        <v>1.5625</v>
+        <v>91.96428571428571</v>
       </c>
       <c r="H4">
         <v>439</v>
@@ -14717,19 +14717,19 @@
         <v>18</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="D5">
-        <v>0.4464285714285714</v>
+        <v>3.348214285714286</v>
       </c>
       <c r="E5">
         <v>229</v>
       </c>
       <c r="F5">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="G5">
-        <v>0.6696428571428571</v>
+        <v>8.928571428571429</v>
       </c>
       <c r="H5">
         <v>420</v>
@@ -14755,19 +14755,19 @@
         <v>21</v>
       </c>
       <c r="C6">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D6">
-        <v>0.8928571428571428</v>
+        <v>1.339285714285714</v>
       </c>
       <c r="E6">
         <v>448</v>
       </c>
       <c r="F6">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G6">
-        <v>0.8928571428571428</v>
+        <v>1.339285714285714</v>
       </c>
       <c r="H6">
         <v>395</v>
@@ -14796,19 +14796,19 @@
         <v>23</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="D7">
-        <v>0.4464285714285714</v>
+        <v>3.794642857142857</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="G7">
-        <v>0.4464285714285714</v>
+        <v>3.794642857142857</v>
       </c>
       <c r="H7">
         <v>148</v>
@@ -14910,19 +14910,19 @@
         <v>25</v>
       </c>
       <c r="C10">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D10">
-        <v>2.901785714285714</v>
+        <v>3.125</v>
       </c>
       <c r="E10">
         <v>223</v>
       </c>
       <c r="F10">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="G10">
-        <v>4.464285714285714</v>
+        <v>11.38392857142857</v>
       </c>
       <c r="H10">
         <v>336</v>
@@ -14957,10 +14957,10 @@
         <v>86</v>
       </c>
       <c r="F11">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="G11">
-        <v>0.6696428571428571</v>
+        <v>5.357142857142857</v>
       </c>
       <c r="H11">
         <v>224</v>
@@ -14986,19 +14986,19 @@
         <v>25</v>
       </c>
       <c r="C12">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D12">
-        <v>0.6696428571428571</v>
+        <v>1.5625</v>
       </c>
       <c r="E12">
         <v>244</v>
       </c>
       <c r="F12">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="G12">
-        <v>0.8928571428571428</v>
+        <v>8.482142857142858</v>
       </c>
       <c r="H12">
         <v>331</v>
@@ -15062,19 +15062,19 @@
         <v>18</v>
       </c>
       <c r="C14">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D14">
-        <v>1.5625</v>
+        <v>2.455357142857143</v>
       </c>
       <c r="E14">
         <v>227</v>
       </c>
       <c r="F14">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G14">
-        <v>2.455357142857143</v>
+        <v>3.571428571428571</v>
       </c>
       <c r="H14">
         <v>176</v>
@@ -15100,19 +15100,19 @@
         <v>34</v>
       </c>
       <c r="C15">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="D15">
-        <v>2.232142857142857</v>
+        <v>8.928571428571429</v>
       </c>
       <c r="E15">
         <v>448</v>
       </c>
       <c r="F15">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="G15">
-        <v>2.232142857142857</v>
+        <v>8.928571428571429</v>
       </c>
       <c r="H15">
         <v>348</v>
@@ -15141,19 +15141,19 @@
         <v>36</v>
       </c>
       <c r="C16">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="D16">
-        <v>2.678571428571428</v>
+        <v>9.821428571428571</v>
       </c>
       <c r="E16">
         <v>448</v>
       </c>
       <c r="F16">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="G16">
-        <v>2.678571428571428</v>
+        <v>9.821428571428571</v>
       </c>
       <c r="H16">
         <v>399</v>
@@ -15191,10 +15191,10 @@
         <v>246</v>
       </c>
       <c r="F17">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G17">
-        <v>0.6696428571428571</v>
+        <v>1.339285714285714</v>
       </c>
       <c r="H17">
         <v>130</v>
@@ -15334,19 +15334,19 @@
         <v>21</v>
       </c>
       <c r="C21">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D21">
-        <v>1.785714285714286</v>
+        <v>3.571428571428571</v>
       </c>
       <c r="E21">
         <v>448</v>
       </c>
       <c r="F21">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="G21">
-        <v>1.785714285714286</v>
+        <v>3.571428571428571</v>
       </c>
       <c r="H21">
         <v>395</v>
@@ -15429,19 +15429,19 @@
         <v>14</v>
       </c>
       <c r="C2">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="D2">
-        <v>1.339285714285714</v>
+        <v>11.16071428571429</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="G2">
-        <v>1.339285714285714</v>
+        <v>11.16071428571429</v>
       </c>
       <c r="H2">
         <v>225</v>
@@ -15505,19 +15505,19 @@
         <v>18</v>
       </c>
       <c r="C4">
-        <v>6</v>
+        <v>309</v>
       </c>
       <c r="D4">
-        <v>1.339285714285714</v>
+        <v>68.97321428571429</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>6</v>
+        <v>309</v>
       </c>
       <c r="G4">
-        <v>1.339285714285714</v>
+        <v>68.97321428571429</v>
       </c>
       <c r="H4">
         <v>439</v>
@@ -15543,19 +15543,19 @@
         <v>18</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D5">
-        <v>0.4464285714285714</v>
+        <v>3.125</v>
       </c>
       <c r="E5">
         <v>229</v>
       </c>
       <c r="F5">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="G5">
-        <v>0.6696428571428571</v>
+        <v>8.482142857142858</v>
       </c>
       <c r="H5">
         <v>420</v>
@@ -15581,19 +15581,19 @@
         <v>21</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D6">
-        <v>0.4464285714285714</v>
+        <v>1.339285714285714</v>
       </c>
       <c r="E6">
         <v>448</v>
       </c>
       <c r="F6">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G6">
-        <v>0.4464285714285714</v>
+        <v>1.339285714285714</v>
       </c>
       <c r="H6">
         <v>374</v>
@@ -15736,19 +15736,19 @@
         <v>25</v>
       </c>
       <c r="C10">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D10">
-        <v>2.232142857142857</v>
+        <v>2.455357142857143</v>
       </c>
       <c r="E10">
         <v>223</v>
       </c>
       <c r="F10">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="G10">
-        <v>3.125</v>
+        <v>6.919642857142858</v>
       </c>
       <c r="H10">
         <v>334</v>
@@ -15812,19 +15812,19 @@
         <v>25</v>
       </c>
       <c r="C12">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D12">
-        <v>0.6696428571428571</v>
+        <v>1.116071428571429</v>
       </c>
       <c r="E12">
         <v>244</v>
       </c>
       <c r="F12">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G12">
-        <v>0.8928571428571428</v>
+        <v>1.5625</v>
       </c>
       <c r="H12">
         <v>302</v>
@@ -15926,19 +15926,19 @@
         <v>34</v>
       </c>
       <c r="C15">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="D15">
-        <v>1.785714285714286</v>
+        <v>6.696428571428571</v>
       </c>
       <c r="E15">
         <v>448</v>
       </c>
       <c r="F15">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="G15">
-        <v>1.785714285714286</v>
+        <v>6.696428571428571</v>
       </c>
       <c r="H15">
         <v>328</v>
@@ -15967,19 +15967,19 @@
         <v>36</v>
       </c>
       <c r="C16">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="D16">
-        <v>2.678571428571428</v>
+        <v>7.142857142857142</v>
       </c>
       <c r="E16">
         <v>448</v>
       </c>
       <c r="F16">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="G16">
-        <v>2.678571428571428</v>
+        <v>7.142857142857142</v>
       </c>
       <c r="H16">
         <v>395</v>
@@ -16369,19 +16369,19 @@
         <v>18</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D5">
-        <v>0.4464285714285714</v>
+        <v>0.6696428571428571</v>
       </c>
       <c r="E5">
         <v>229</v>
       </c>
       <c r="F5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G5">
-        <v>0.6696428571428571</v>
+        <v>1.116071428571429</v>
       </c>
       <c r="H5">
         <v>63</v>
@@ -16562,19 +16562,19 @@
         <v>25</v>
       </c>
       <c r="C10">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="D10">
-        <v>5.357142857142857</v>
+        <v>9.598214285714286</v>
       </c>
       <c r="E10">
         <v>223</v>
       </c>
       <c r="F10">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="G10">
-        <v>7.366071428571429</v>
+        <v>12.72321428571428</v>
       </c>
       <c r="H10">
         <v>88</v>
@@ -16752,19 +16752,19 @@
         <v>34</v>
       </c>
       <c r="C15">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D15">
-        <v>2.232142857142857</v>
+        <v>1.785714285714286</v>
       </c>
       <c r="E15">
         <v>448</v>
       </c>
       <c r="F15">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G15">
-        <v>2.232142857142857</v>
+        <v>1.785714285714286</v>
       </c>
       <c r="H15">
         <v>15</v>
@@ -17350,19 +17350,19 @@
         <v>16</v>
       </c>
       <c r="C9">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D9">
-        <v>1.339285714285714</v>
+        <v>1.5625</v>
       </c>
       <c r="E9">
         <v>288</v>
       </c>
       <c r="F9">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G9">
-        <v>1.785714285714286</v>
+        <v>2.008928571428572</v>
       </c>
       <c r="H9">
         <v>9</v>
@@ -17388,19 +17388,19 @@
         <v>25</v>
       </c>
       <c r="C10">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="D10">
-        <v>7.366071428571429</v>
+        <v>9.598214285714286</v>
       </c>
       <c r="E10">
         <v>223</v>
       </c>
       <c r="F10">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="G10">
-        <v>9.821428571428571</v>
+        <v>13.61607142857143</v>
       </c>
       <c r="H10">
         <v>88</v>
@@ -17464,19 +17464,19 @@
         <v>25</v>
       </c>
       <c r="C12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D12">
-        <v>0.6696428571428571</v>
+        <v>0.2232142857142857</v>
       </c>
       <c r="E12">
         <v>244</v>
       </c>
       <c r="F12">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.8928571428571428</v>
+        <v>0.2232142857142857</v>
       </c>
       <c r="H12">
         <v>63</v>
@@ -20692,19 +20692,19 @@
         <v>25</v>
       </c>
       <c r="C10">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="D10">
-        <v>9.598214285714286</v>
+        <v>10.9375</v>
       </c>
       <c r="E10">
         <v>223</v>
       </c>
       <c r="F10">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="G10">
-        <v>13.83928571428572</v>
+        <v>15.17857142857143</v>
       </c>
       <c r="H10">
         <v>90</v>
@@ -20882,19 +20882,19 @@
         <v>34</v>
       </c>
       <c r="C15">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D15">
-        <v>2.232142857142857</v>
+        <v>1.785714285714286</v>
       </c>
       <c r="E15">
         <v>448</v>
       </c>
       <c r="F15">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G15">
-        <v>2.232142857142857</v>
+        <v>1.785714285714286</v>
       </c>
       <c r="H15">
         <v>15</v>
@@ -21363,19 +21363,19 @@
         <v>21</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D6">
-        <v>0.4464285714285714</v>
+        <v>0.8928571428571428</v>
       </c>
       <c r="E6">
         <v>448</v>
       </c>
       <c r="F6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G6">
-        <v>0.4464285714285714</v>
+        <v>0.8928571428571428</v>
       </c>
       <c r="H6">
         <v>6</v>
@@ -21518,10 +21518,10 @@
         <v>25</v>
       </c>
       <c r="C10">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="D10">
-        <v>1.5625</v>
+        <v>5.133928571428571</v>
       </c>
       <c r="E10">
         <v>223</v>
@@ -22863,19 +22863,19 @@
         <v>14</v>
       </c>
       <c r="C2">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="D2">
-        <v>1.339285714285714</v>
+        <v>11.60714285714286</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="G2">
-        <v>1.339285714285714</v>
+        <v>11.60714285714286</v>
       </c>
       <c r="H2">
         <v>229</v>
@@ -22939,19 +22939,19 @@
         <v>18</v>
       </c>
       <c r="C4">
-        <v>7</v>
+        <v>412</v>
       </c>
       <c r="D4">
-        <v>1.5625</v>
+        <v>91.96428571428571</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>7</v>
+        <v>412</v>
       </c>
       <c r="G4">
-        <v>1.5625</v>
+        <v>91.96428571428571</v>
       </c>
       <c r="H4">
         <v>439</v>
@@ -22977,19 +22977,19 @@
         <v>18</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="D5">
-        <v>0.4464285714285714</v>
+        <v>3.348214285714286</v>
       </c>
       <c r="E5">
         <v>229</v>
       </c>
       <c r="F5">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="G5">
-        <v>0.6696428571428571</v>
+        <v>8.928571428571429</v>
       </c>
       <c r="H5">
         <v>420</v>
@@ -23015,19 +23015,19 @@
         <v>21</v>
       </c>
       <c r="C6">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D6">
-        <v>0.8928571428571428</v>
+        <v>1.339285714285714</v>
       </c>
       <c r="E6">
         <v>448</v>
       </c>
       <c r="F6">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G6">
-        <v>0.8928571428571428</v>
+        <v>1.339285714285714</v>
       </c>
       <c r="H6">
         <v>395</v>
@@ -23056,19 +23056,19 @@
         <v>23</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="D7">
-        <v>0.4464285714285714</v>
+        <v>3.794642857142857</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="G7">
-        <v>0.4464285714285714</v>
+        <v>3.794642857142857</v>
       </c>
       <c r="H7">
         <v>148</v>
@@ -23170,19 +23170,19 @@
         <v>25</v>
       </c>
       <c r="C10">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D10">
-        <v>2.901785714285714</v>
+        <v>3.125</v>
       </c>
       <c r="E10">
         <v>223</v>
       </c>
       <c r="F10">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="G10">
-        <v>4.464285714285714</v>
+        <v>11.38392857142857</v>
       </c>
       <c r="H10">
         <v>336</v>
@@ -23217,10 +23217,10 @@
         <v>86</v>
       </c>
       <c r="F11">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="G11">
-        <v>0.6696428571428571</v>
+        <v>5.357142857142857</v>
       </c>
       <c r="H11">
         <v>224</v>
@@ -23246,19 +23246,19 @@
         <v>25</v>
       </c>
       <c r="C12">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D12">
-        <v>0.6696428571428571</v>
+        <v>1.5625</v>
       </c>
       <c r="E12">
         <v>244</v>
       </c>
       <c r="F12">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="G12">
-        <v>0.8928571428571428</v>
+        <v>8.482142857142858</v>
       </c>
       <c r="H12">
         <v>331</v>
@@ -23322,19 +23322,19 @@
         <v>18</v>
       </c>
       <c r="C14">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D14">
-        <v>1.5625</v>
+        <v>2.455357142857143</v>
       </c>
       <c r="E14">
         <v>227</v>
       </c>
       <c r="F14">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G14">
-        <v>2.455357142857143</v>
+        <v>3.571428571428571</v>
       </c>
       <c r="H14">
         <v>176</v>
@@ -23360,19 +23360,19 @@
         <v>34</v>
       </c>
       <c r="C15">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="D15">
-        <v>2.232142857142857</v>
+        <v>8.928571428571429</v>
       </c>
       <c r="E15">
         <v>448</v>
       </c>
       <c r="F15">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="G15">
-        <v>2.232142857142857</v>
+        <v>8.928571428571429</v>
       </c>
       <c r="H15">
         <v>348</v>
@@ -23401,19 +23401,19 @@
         <v>36</v>
       </c>
       <c r="C16">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="D16">
-        <v>2.678571428571428</v>
+        <v>9.821428571428571</v>
       </c>
       <c r="E16">
         <v>448</v>
       </c>
       <c r="F16">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="G16">
-        <v>2.678571428571428</v>
+        <v>9.821428571428571</v>
       </c>
       <c r="H16">
         <v>399</v>
@@ -23451,10 +23451,10 @@
         <v>246</v>
       </c>
       <c r="F17">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G17">
-        <v>0.6696428571428571</v>
+        <v>1.339285714285714</v>
       </c>
       <c r="H17">
         <v>130</v>
@@ -23594,19 +23594,19 @@
         <v>21</v>
       </c>
       <c r="C21">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D21">
-        <v>1.785714285714286</v>
+        <v>3.571428571428571</v>
       </c>
       <c r="E21">
         <v>448</v>
       </c>
       <c r="F21">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="G21">
-        <v>1.785714285714286</v>
+        <v>3.571428571428571</v>
       </c>
       <c r="H21">
         <v>395</v>
@@ -23689,19 +23689,19 @@
         <v>14</v>
       </c>
       <c r="C2">
-        <v>6</v>
+        <v>101</v>
       </c>
       <c r="D2">
-        <v>1.339285714285714</v>
+        <v>22.54464285714286</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>6</v>
+        <v>101</v>
       </c>
       <c r="G2">
-        <v>1.339285714285714</v>
+        <v>22.54464285714286</v>
       </c>
       <c r="H2">
         <v>229</v>
@@ -23765,19 +23765,19 @@
         <v>18</v>
       </c>
       <c r="C4">
-        <v>7</v>
+        <v>412</v>
       </c>
       <c r="D4">
-        <v>1.5625</v>
+        <v>91.96428571428571</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>7</v>
+        <v>412</v>
       </c>
       <c r="G4">
-        <v>1.5625</v>
+        <v>91.96428571428571</v>
       </c>
       <c r="H4">
         <v>439</v>
@@ -23803,19 +23803,19 @@
         <v>18</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D5">
-        <v>0.4464285714285714</v>
+        <v>2.678571428571428</v>
       </c>
       <c r="E5">
         <v>229</v>
       </c>
       <c r="F5">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="G5">
-        <v>0.6696428571428571</v>
+        <v>7.8125</v>
       </c>
       <c r="H5">
         <v>420</v>
@@ -23882,19 +23882,19 @@
         <v>23</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="D7">
-        <v>0.4464285714285714</v>
+        <v>5.357142857142857</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="G7">
-        <v>0.4464285714285714</v>
+        <v>5.357142857142857</v>
       </c>
       <c r="H7">
         <v>148</v>
@@ -23996,19 +23996,19 @@
         <v>25</v>
       </c>
       <c r="C10">
-        <v>48</v>
+        <v>91</v>
       </c>
       <c r="D10">
-        <v>10.71428571428571</v>
+        <v>20.3125</v>
       </c>
       <c r="E10">
         <v>223</v>
       </c>
       <c r="F10">
-        <v>72</v>
+        <v>203</v>
       </c>
       <c r="G10">
-        <v>16.07142857142857</v>
+        <v>45.3125</v>
       </c>
       <c r="H10">
         <v>336</v>
@@ -24043,10 +24043,10 @@
         <v>86</v>
       </c>
       <c r="F11">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="G11">
-        <v>0.6696428571428571</v>
+        <v>5.803571428571429</v>
       </c>
       <c r="H11">
         <v>224</v>
@@ -24072,19 +24072,19 @@
         <v>25</v>
       </c>
       <c r="C12">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D12">
-        <v>1.116071428571429</v>
+        <v>2.008928571428572</v>
       </c>
       <c r="E12">
         <v>244</v>
       </c>
       <c r="F12">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="G12">
-        <v>1.5625</v>
+        <v>9.375</v>
       </c>
       <c r="H12">
         <v>331</v>
@@ -24186,19 +24186,19 @@
         <v>34</v>
       </c>
       <c r="C15">
-        <v>10</v>
+        <v>132</v>
       </c>
       <c r="D15">
-        <v>2.232142857142857</v>
+        <v>29.46428571428572</v>
       </c>
       <c r="E15">
         <v>448</v>
       </c>
       <c r="F15">
-        <v>10</v>
+        <v>132</v>
       </c>
       <c r="G15">
-        <v>2.232142857142857</v>
+        <v>29.46428571428572</v>
       </c>
       <c r="H15">
         <v>348</v>
@@ -24227,19 +24227,19 @@
         <v>36</v>
       </c>
       <c r="C16">
-        <v>12</v>
+        <v>206</v>
       </c>
       <c r="D16">
-        <v>2.678571428571428</v>
+        <v>45.98214285714285</v>
       </c>
       <c r="E16">
         <v>448</v>
       </c>
       <c r="F16">
-        <v>12</v>
+        <v>206</v>
       </c>
       <c r="G16">
-        <v>2.678571428571428</v>
+        <v>45.98214285714285</v>
       </c>
       <c r="H16">
         <v>399</v>
@@ -24277,10 +24277,10 @@
         <v>246</v>
       </c>
       <c r="F17">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G17">
-        <v>0.6696428571428571</v>
+        <v>1.339285714285714</v>
       </c>
       <c r="H17">
         <v>130</v>
@@ -24420,19 +24420,19 @@
         <v>21</v>
       </c>
       <c r="C21">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D21">
-        <v>1.785714285714286</v>
+        <v>3.571428571428571</v>
       </c>
       <c r="E21">
         <v>448</v>
       </c>
       <c r="F21">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="G21">
-        <v>1.785714285714286</v>
+        <v>3.571428571428571</v>
       </c>
       <c r="H21">
         <v>395</v>
@@ -24629,19 +24629,19 @@
         <v>18</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D5">
-        <v>0.4464285714285714</v>
+        <v>0.6696428571428571</v>
       </c>
       <c r="E5">
         <v>229</v>
       </c>
       <c r="F5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G5">
-        <v>0.6696428571428571</v>
+        <v>1.116071428571429</v>
       </c>
       <c r="H5">
         <v>5</v>
@@ -24831,10 +24831,10 @@
         <v>223</v>
       </c>
       <c r="F10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G10">
-        <v>2.008928571428572</v>
+        <v>2.232142857142857</v>
       </c>
       <c r="H10">
         <v>5</v>

--- a/experiment_results/DataV2_0.5/Elevator/ENABLE_NORMALIZATION/AGGREGATION_ARITHMETIC_MEAN/4wise/1Bug.xlsx
+++ b/experiment_results/DataV2_0.5/Elevator/ENABLE_NORMALIZATION/AGGREGATION_ARITHMETIC_MEAN/4wise/1Bug.xlsx
@@ -868,10 +868,10 @@
         <v>25</v>
       </c>
       <c r="C10">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="D10">
-        <v>8.035714285714286</v>
+        <v>5.357142857142857</v>
       </c>
       <c r="E10">
         <v>223</v>
@@ -1694,19 +1694,19 @@
         <v>25</v>
       </c>
       <c r="C10">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="D10">
-        <v>9.598214285714286</v>
+        <v>5.357142857142857</v>
       </c>
       <c r="E10">
         <v>223</v>
       </c>
       <c r="F10">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="G10">
-        <v>12.72321428571428</v>
+        <v>7.366071428571429</v>
       </c>
       <c r="H10">
         <v>88</v>
@@ -2520,19 +2520,19 @@
         <v>25</v>
       </c>
       <c r="C10">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="D10">
-        <v>9.598214285714286</v>
+        <v>7.366071428571429</v>
       </c>
       <c r="E10">
         <v>223</v>
       </c>
       <c r="F10">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="G10">
-        <v>12.72321428571428</v>
+        <v>9.821428571428571</v>
       </c>
       <c r="H10">
         <v>88</v>
@@ -2596,10 +2596,10 @@
         <v>25</v>
       </c>
       <c r="C12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D12">
-        <v>0.4464285714285714</v>
+        <v>0.6696428571428571</v>
       </c>
       <c r="E12">
         <v>244</v>
@@ -3039,19 +3039,19 @@
         <v>14</v>
       </c>
       <c r="C2">
-        <v>44</v>
+        <v>6</v>
       </c>
       <c r="D2">
-        <v>9.821428571428571</v>
+        <v>1.339285714285714</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>44</v>
+        <v>6</v>
       </c>
       <c r="G2">
-        <v>9.821428571428571</v>
+        <v>1.339285714285714</v>
       </c>
       <c r="H2">
         <v>220</v>
@@ -3115,19 +3115,19 @@
         <v>18</v>
       </c>
       <c r="C4">
-        <v>239</v>
+        <v>6</v>
       </c>
       <c r="D4">
-        <v>53.34821428571429</v>
+        <v>1.339285714285714</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>239</v>
+        <v>6</v>
       </c>
       <c r="G4">
-        <v>53.34821428571429</v>
+        <v>1.339285714285714</v>
       </c>
       <c r="H4">
         <v>439</v>
@@ -3153,19 +3153,19 @@
         <v>18</v>
       </c>
       <c r="C5">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="D5">
-        <v>3.348214285714286</v>
+        <v>0.4464285714285714</v>
       </c>
       <c r="E5">
         <v>229</v>
       </c>
       <c r="F5">
-        <v>37</v>
+        <v>3</v>
       </c>
       <c r="G5">
-        <v>8.258928571428571</v>
+        <v>0.6696428571428571</v>
       </c>
       <c r="H5">
         <v>418</v>
@@ -3346,19 +3346,19 @@
         <v>25</v>
       </c>
       <c r="C10">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D10">
-        <v>2.455357142857143</v>
+        <v>3.348214285714286</v>
       </c>
       <c r="E10">
         <v>223</v>
       </c>
       <c r="F10">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="G10">
-        <v>7.142857142857142</v>
+        <v>5.133928571428571</v>
       </c>
       <c r="H10">
         <v>323</v>
@@ -3422,19 +3422,19 @@
         <v>25</v>
       </c>
       <c r="C12">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D12">
-        <v>1.339285714285714</v>
+        <v>0.6696428571428571</v>
       </c>
       <c r="E12">
         <v>244</v>
       </c>
       <c r="F12">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G12">
-        <v>1.785714285714286</v>
+        <v>0.8928571428571428</v>
       </c>
       <c r="H12">
         <v>275</v>
@@ -3536,19 +3536,19 @@
         <v>34</v>
       </c>
       <c r="C15">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="D15">
-        <v>6.696428571428571</v>
+        <v>2.232142857142857</v>
       </c>
       <c r="E15">
         <v>448</v>
       </c>
       <c r="F15">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="G15">
-        <v>6.696428571428571</v>
+        <v>2.232142857142857</v>
       </c>
       <c r="H15">
         <v>296</v>
@@ -3577,19 +3577,19 @@
         <v>36</v>
       </c>
       <c r="C16">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="D16">
-        <v>7.366071428571429</v>
+        <v>2.678571428571428</v>
       </c>
       <c r="E16">
         <v>448</v>
       </c>
       <c r="F16">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="G16">
-        <v>7.366071428571429</v>
+        <v>2.678571428571428</v>
       </c>
       <c r="H16">
         <v>393</v>
@@ -3865,19 +3865,19 @@
         <v>14</v>
       </c>
       <c r="C2">
-        <v>44</v>
+        <v>6</v>
       </c>
       <c r="D2">
-        <v>9.821428571428571</v>
+        <v>1.339285714285714</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>44</v>
+        <v>6</v>
       </c>
       <c r="G2">
-        <v>9.821428571428571</v>
+        <v>1.339285714285714</v>
       </c>
       <c r="H2">
         <v>220</v>
@@ -3941,19 +3941,19 @@
         <v>18</v>
       </c>
       <c r="C4">
-        <v>239</v>
+        <v>6</v>
       </c>
       <c r="D4">
-        <v>53.34821428571429</v>
+        <v>1.339285714285714</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>239</v>
+        <v>6</v>
       </c>
       <c r="G4">
-        <v>53.34821428571429</v>
+        <v>1.339285714285714</v>
       </c>
       <c r="H4">
         <v>439</v>
@@ -3979,19 +3979,19 @@
         <v>18</v>
       </c>
       <c r="C5">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="D5">
-        <v>3.348214285714286</v>
+        <v>0.4464285714285714</v>
       </c>
       <c r="E5">
         <v>229</v>
       </c>
       <c r="F5">
-        <v>37</v>
+        <v>3</v>
       </c>
       <c r="G5">
-        <v>8.258928571428571</v>
+        <v>0.6696428571428571</v>
       </c>
       <c r="H5">
         <v>418</v>
@@ -4172,19 +4172,19 @@
         <v>25</v>
       </c>
       <c r="C10">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D10">
-        <v>2.455357142857143</v>
+        <v>3.348214285714286</v>
       </c>
       <c r="E10">
         <v>223</v>
       </c>
       <c r="F10">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="G10">
-        <v>7.142857142857142</v>
+        <v>5.133928571428571</v>
       </c>
       <c r="H10">
         <v>323</v>
@@ -4248,19 +4248,19 @@
         <v>25</v>
       </c>
       <c r="C12">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D12">
-        <v>1.339285714285714</v>
+        <v>0.6696428571428571</v>
       </c>
       <c r="E12">
         <v>244</v>
       </c>
       <c r="F12">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G12">
-        <v>1.785714285714286</v>
+        <v>0.8928571428571428</v>
       </c>
       <c r="H12">
         <v>275</v>
@@ -4362,19 +4362,19 @@
         <v>34</v>
       </c>
       <c r="C15">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="D15">
-        <v>6.696428571428571</v>
+        <v>2.232142857142857</v>
       </c>
       <c r="E15">
         <v>448</v>
       </c>
       <c r="F15">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="G15">
-        <v>6.696428571428571</v>
+        <v>2.232142857142857</v>
       </c>
       <c r="H15">
         <v>296</v>
@@ -4403,19 +4403,19 @@
         <v>36</v>
       </c>
       <c r="C16">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="D16">
-        <v>7.366071428571429</v>
+        <v>2.678571428571428</v>
       </c>
       <c r="E16">
         <v>448</v>
       </c>
       <c r="F16">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="G16">
-        <v>7.366071428571429</v>
+        <v>2.678571428571428</v>
       </c>
       <c r="H16">
         <v>393</v>
@@ -4843,19 +4843,19 @@
         <v>21</v>
       </c>
       <c r="C6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D6">
-        <v>0.8928571428571428</v>
+        <v>0.4464285714285714</v>
       </c>
       <c r="E6">
         <v>448</v>
       </c>
       <c r="F6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G6">
-        <v>0.8928571428571428</v>
+        <v>0.4464285714285714</v>
       </c>
       <c r="H6">
         <v>6</v>
@@ -4998,19 +4998,19 @@
         <v>25</v>
       </c>
       <c r="C10">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="D10">
-        <v>5.357142857142857</v>
+        <v>1.785714285714286</v>
       </c>
       <c r="E10">
         <v>223</v>
       </c>
       <c r="F10">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="G10">
-        <v>7.366071428571429</v>
+        <v>2.901785714285714</v>
       </c>
       <c r="H10">
         <v>35</v>
@@ -5074,19 +5074,19 @@
         <v>25</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D12">
-        <v>0.2232142857142857</v>
+        <v>0.4464285714285714</v>
       </c>
       <c r="E12">
         <v>244</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G12">
-        <v>0.2232142857142857</v>
+        <v>0.4464285714285714</v>
       </c>
       <c r="H12">
         <v>31</v>
@@ -5631,10 +5631,10 @@
         <v>18</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D5">
-        <v>0.6696428571428571</v>
+        <v>0.4464285714285714</v>
       </c>
       <c r="E5">
         <v>229</v>
@@ -7169,19 +7169,19 @@
         <v>14</v>
       </c>
       <c r="C2">
-        <v>52</v>
+        <v>6</v>
       </c>
       <c r="D2">
-        <v>11.60714285714286</v>
+        <v>1.339285714285714</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>52</v>
+        <v>6</v>
       </c>
       <c r="G2">
-        <v>11.60714285714286</v>
+        <v>1.339285714285714</v>
       </c>
       <c r="H2">
         <v>229</v>
@@ -7245,19 +7245,19 @@
         <v>18</v>
       </c>
       <c r="C4">
-        <v>363</v>
+        <v>7</v>
       </c>
       <c r="D4">
-        <v>81.02678571428571</v>
+        <v>1.5625</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>363</v>
+        <v>7</v>
       </c>
       <c r="G4">
-        <v>81.02678571428571</v>
+        <v>1.5625</v>
       </c>
       <c r="H4">
         <v>439</v>
@@ -7283,19 +7283,19 @@
         <v>18</v>
       </c>
       <c r="C5">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="D5">
-        <v>4.017857142857143</v>
+        <v>0.6696428571428571</v>
       </c>
       <c r="E5">
         <v>229</v>
       </c>
       <c r="F5">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="G5">
-        <v>11.16071428571429</v>
+        <v>1.116071428571429</v>
       </c>
       <c r="H5">
         <v>420</v>
@@ -7321,19 +7321,19 @@
         <v>21</v>
       </c>
       <c r="C6">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D6">
-        <v>1.339285714285714</v>
+        <v>0.4464285714285714</v>
       </c>
       <c r="E6">
         <v>448</v>
       </c>
       <c r="F6">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G6">
-        <v>1.339285714285714</v>
+        <v>0.4464285714285714</v>
       </c>
       <c r="H6">
         <v>395</v>
@@ -7362,19 +7362,19 @@
         <v>23</v>
       </c>
       <c r="C7">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="D7">
-        <v>3.794642857142857</v>
+        <v>0.4464285714285714</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="G7">
-        <v>3.794642857142857</v>
+        <v>0.4464285714285714</v>
       </c>
       <c r="H7">
         <v>148</v>
@@ -7476,19 +7476,19 @@
         <v>25</v>
       </c>
       <c r="C10">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D10">
-        <v>2.455357142857143</v>
+        <v>2.232142857142857</v>
       </c>
       <c r="E10">
         <v>223</v>
       </c>
       <c r="F10">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="G10">
-        <v>9.821428571428571</v>
+        <v>3.348214285714286</v>
       </c>
       <c r="H10">
         <v>336</v>
@@ -7523,10 +7523,10 @@
         <v>86</v>
       </c>
       <c r="F11">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>3.125</v>
+        <v>0.2232142857142857</v>
       </c>
       <c r="H11">
         <v>224</v>
@@ -7552,19 +7552,19 @@
         <v>25</v>
       </c>
       <c r="C12">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D12">
-        <v>1.339285714285714</v>
+        <v>0.6696428571428571</v>
       </c>
       <c r="E12">
         <v>244</v>
       </c>
       <c r="F12">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="G12">
-        <v>7.366071428571429</v>
+        <v>0.8928571428571428</v>
       </c>
       <c r="H12">
         <v>331</v>
@@ -7628,19 +7628,19 @@
         <v>18</v>
       </c>
       <c r="C14">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D14">
-        <v>3.125</v>
+        <v>2.901785714285714</v>
       </c>
       <c r="E14">
         <v>227</v>
       </c>
       <c r="F14">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G14">
-        <v>4.6875</v>
+        <v>4.464285714285714</v>
       </c>
       <c r="H14">
         <v>176</v>
@@ -7666,19 +7666,19 @@
         <v>34</v>
       </c>
       <c r="C15">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="D15">
-        <v>6.696428571428571</v>
+        <v>1.339285714285714</v>
       </c>
       <c r="E15">
         <v>448</v>
       </c>
       <c r="F15">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="G15">
-        <v>6.696428571428571</v>
+        <v>1.339285714285714</v>
       </c>
       <c r="H15">
         <v>348</v>
@@ -7707,19 +7707,19 @@
         <v>36</v>
       </c>
       <c r="C16">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="D16">
-        <v>8.928571428571429</v>
+        <v>2.232142857142857</v>
       </c>
       <c r="E16">
         <v>448</v>
       </c>
       <c r="F16">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="G16">
-        <v>8.928571428571429</v>
+        <v>2.232142857142857</v>
       </c>
       <c r="H16">
         <v>399</v>
@@ -7757,10 +7757,10 @@
         <v>246</v>
       </c>
       <c r="F17">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G17">
-        <v>1.339285714285714</v>
+        <v>0.6696428571428571</v>
       </c>
       <c r="H17">
         <v>130</v>
@@ -7900,19 +7900,19 @@
         <v>21</v>
       </c>
       <c r="C21">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D21">
-        <v>2.232142857142857</v>
+        <v>1.785714285714286</v>
       </c>
       <c r="E21">
         <v>448</v>
       </c>
       <c r="F21">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G21">
-        <v>2.232142857142857</v>
+        <v>1.785714285714286</v>
       </c>
       <c r="H21">
         <v>395</v>
@@ -8264,19 +8264,19 @@
         <v>16</v>
       </c>
       <c r="C9">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D9">
-        <v>1.5625</v>
+        <v>1.339285714285714</v>
       </c>
       <c r="E9">
         <v>288</v>
       </c>
       <c r="F9">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G9">
-        <v>2.008928571428572</v>
+        <v>1.785714285714286</v>
       </c>
       <c r="H9">
         <v>9</v>
@@ -8302,19 +8302,19 @@
         <v>25</v>
       </c>
       <c r="C10">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="D10">
-        <v>9.598214285714286</v>
+        <v>7.366071428571429</v>
       </c>
       <c r="E10">
         <v>223</v>
       </c>
       <c r="F10">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="G10">
-        <v>13.61607142857143</v>
+        <v>9.821428571428571</v>
       </c>
       <c r="H10">
         <v>88</v>
@@ -8378,19 +8378,19 @@
         <v>25</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D12">
-        <v>0.2232142857142857</v>
+        <v>0.6696428571428571</v>
       </c>
       <c r="E12">
         <v>244</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G12">
-        <v>0.2232142857142857</v>
+        <v>0.8928571428571428</v>
       </c>
       <c r="H12">
         <v>63</v>
@@ -9128,19 +9128,19 @@
         <v>25</v>
       </c>
       <c r="C10">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="D10">
-        <v>9.598214285714286</v>
+        <v>5.357142857142857</v>
       </c>
       <c r="E10">
         <v>223</v>
       </c>
       <c r="F10">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="G10">
-        <v>12.72321428571428</v>
+        <v>7.366071428571429</v>
       </c>
       <c r="H10">
         <v>88</v>
@@ -9916,19 +9916,19 @@
         <v>16</v>
       </c>
       <c r="C9">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D9">
-        <v>1.5625</v>
+        <v>1.116071428571429</v>
       </c>
       <c r="E9">
         <v>288</v>
       </c>
       <c r="F9">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G9">
-        <v>2.008928571428572</v>
+        <v>1.5625</v>
       </c>
       <c r="H9">
         <v>8</v>
@@ -9963,10 +9963,10 @@
         <v>223</v>
       </c>
       <c r="F10">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G10">
-        <v>7.366071428571429</v>
+        <v>7.142857142857142</v>
       </c>
       <c r="H10">
         <v>34</v>
@@ -10473,19 +10473,19 @@
         <v>14</v>
       </c>
       <c r="C2">
-        <v>52</v>
+        <v>6</v>
       </c>
       <c r="D2">
-        <v>11.60714285714286</v>
+        <v>1.339285714285714</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>52</v>
+        <v>6</v>
       </c>
       <c r="G2">
-        <v>11.60714285714286</v>
+        <v>1.339285714285714</v>
       </c>
       <c r="H2">
         <v>229</v>
@@ -10549,19 +10549,19 @@
         <v>18</v>
       </c>
       <c r="C4">
-        <v>412</v>
+        <v>7</v>
       </c>
       <c r="D4">
-        <v>91.96428571428571</v>
+        <v>1.5625</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>412</v>
+        <v>7</v>
       </c>
       <c r="G4">
-        <v>91.96428571428571</v>
+        <v>1.5625</v>
       </c>
       <c r="H4">
         <v>439</v>
@@ -10587,19 +10587,19 @@
         <v>18</v>
       </c>
       <c r="C5">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="D5">
-        <v>3.348214285714286</v>
+        <v>0.4464285714285714</v>
       </c>
       <c r="E5">
         <v>229</v>
       </c>
       <c r="F5">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="G5">
-        <v>8.928571428571429</v>
+        <v>0.6696428571428571</v>
       </c>
       <c r="H5">
         <v>420</v>
@@ -10625,19 +10625,19 @@
         <v>21</v>
       </c>
       <c r="C6">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D6">
-        <v>1.339285714285714</v>
+        <v>0.8928571428571428</v>
       </c>
       <c r="E6">
         <v>448</v>
       </c>
       <c r="F6">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G6">
-        <v>1.339285714285714</v>
+        <v>0.8928571428571428</v>
       </c>
       <c r="H6">
         <v>395</v>
@@ -10666,19 +10666,19 @@
         <v>23</v>
       </c>
       <c r="C7">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="D7">
-        <v>3.794642857142857</v>
+        <v>0.4464285714285714</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="G7">
-        <v>3.794642857142857</v>
+        <v>0.4464285714285714</v>
       </c>
       <c r="H7">
         <v>148</v>
@@ -10780,19 +10780,19 @@
         <v>25</v>
       </c>
       <c r="C10">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D10">
-        <v>3.125</v>
+        <v>2.901785714285714</v>
       </c>
       <c r="E10">
         <v>223</v>
       </c>
       <c r="F10">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="G10">
-        <v>11.38392857142857</v>
+        <v>4.464285714285714</v>
       </c>
       <c r="H10">
         <v>336</v>
@@ -10827,10 +10827,10 @@
         <v>86</v>
       </c>
       <c r="F11">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="G11">
-        <v>5.357142857142857</v>
+        <v>0.6696428571428571</v>
       </c>
       <c r="H11">
         <v>224</v>
@@ -10856,19 +10856,19 @@
         <v>25</v>
       </c>
       <c r="C12">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D12">
-        <v>1.5625</v>
+        <v>0.6696428571428571</v>
       </c>
       <c r="E12">
         <v>244</v>
       </c>
       <c r="F12">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="G12">
-        <v>8.482142857142858</v>
+        <v>0.8928571428571428</v>
       </c>
       <c r="H12">
         <v>331</v>
@@ -10932,19 +10932,19 @@
         <v>18</v>
       </c>
       <c r="C14">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D14">
-        <v>2.455357142857143</v>
+        <v>1.5625</v>
       </c>
       <c r="E14">
         <v>227</v>
       </c>
       <c r="F14">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G14">
-        <v>3.571428571428571</v>
+        <v>2.455357142857143</v>
       </c>
       <c r="H14">
         <v>176</v>
@@ -10970,19 +10970,19 @@
         <v>34</v>
       </c>
       <c r="C15">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="D15">
-        <v>8.928571428571429</v>
+        <v>2.232142857142857</v>
       </c>
       <c r="E15">
         <v>448</v>
       </c>
       <c r="F15">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="G15">
-        <v>8.928571428571429</v>
+        <v>2.232142857142857</v>
       </c>
       <c r="H15">
         <v>348</v>
@@ -11011,19 +11011,19 @@
         <v>36</v>
       </c>
       <c r="C16">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="D16">
-        <v>9.821428571428571</v>
+        <v>2.678571428571428</v>
       </c>
       <c r="E16">
         <v>448</v>
       </c>
       <c r="F16">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="G16">
-        <v>9.821428571428571</v>
+        <v>2.678571428571428</v>
       </c>
       <c r="H16">
         <v>399</v>
@@ -11061,10 +11061,10 @@
         <v>246</v>
       </c>
       <c r="F17">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G17">
-        <v>1.339285714285714</v>
+        <v>0.6696428571428571</v>
       </c>
       <c r="H17">
         <v>130</v>
@@ -11204,19 +11204,19 @@
         <v>21</v>
       </c>
       <c r="C21">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D21">
-        <v>3.571428571428571</v>
+        <v>1.785714285714286</v>
       </c>
       <c r="E21">
         <v>448</v>
       </c>
       <c r="F21">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="G21">
-        <v>3.571428571428571</v>
+        <v>1.785714285714286</v>
       </c>
       <c r="H21">
         <v>395</v>
@@ -11299,19 +11299,19 @@
         <v>14</v>
       </c>
       <c r="C2">
-        <v>52</v>
+        <v>6</v>
       </c>
       <c r="D2">
-        <v>11.60714285714286</v>
+        <v>1.339285714285714</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>52</v>
+        <v>6</v>
       </c>
       <c r="G2">
-        <v>11.60714285714286</v>
+        <v>1.339285714285714</v>
       </c>
       <c r="H2">
         <v>229</v>
@@ -11375,19 +11375,19 @@
         <v>18</v>
       </c>
       <c r="C4">
-        <v>412</v>
+        <v>7</v>
       </c>
       <c r="D4">
-        <v>91.96428571428571</v>
+        <v>1.5625</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>412</v>
+        <v>7</v>
       </c>
       <c r="G4">
-        <v>91.96428571428571</v>
+        <v>1.5625</v>
       </c>
       <c r="H4">
         <v>439</v>
@@ -11413,19 +11413,19 @@
         <v>18</v>
       </c>
       <c r="C5">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="D5">
-        <v>3.348214285714286</v>
+        <v>0.4464285714285714</v>
       </c>
       <c r="E5">
         <v>229</v>
       </c>
       <c r="F5">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="G5">
-        <v>8.928571428571429</v>
+        <v>0.6696428571428571</v>
       </c>
       <c r="H5">
         <v>420</v>
@@ -11451,19 +11451,19 @@
         <v>21</v>
       </c>
       <c r="C6">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D6">
-        <v>1.339285714285714</v>
+        <v>0.8928571428571428</v>
       </c>
       <c r="E6">
         <v>448</v>
       </c>
       <c r="F6">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G6">
-        <v>1.339285714285714</v>
+        <v>0.8928571428571428</v>
       </c>
       <c r="H6">
         <v>395</v>
@@ -11492,19 +11492,19 @@
         <v>23</v>
       </c>
       <c r="C7">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="D7">
-        <v>3.794642857142857</v>
+        <v>0.4464285714285714</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="G7">
-        <v>3.794642857142857</v>
+        <v>0.4464285714285714</v>
       </c>
       <c r="H7">
         <v>148</v>
@@ -11606,19 +11606,19 @@
         <v>25</v>
       </c>
       <c r="C10">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D10">
-        <v>3.125</v>
+        <v>2.901785714285714</v>
       </c>
       <c r="E10">
         <v>223</v>
       </c>
       <c r="F10">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="G10">
-        <v>11.38392857142857</v>
+        <v>4.464285714285714</v>
       </c>
       <c r="H10">
         <v>336</v>
@@ -11653,10 +11653,10 @@
         <v>86</v>
       </c>
       <c r="F11">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="G11">
-        <v>5.357142857142857</v>
+        <v>0.6696428571428571</v>
       </c>
       <c r="H11">
         <v>224</v>
@@ -11682,19 +11682,19 @@
         <v>25</v>
       </c>
       <c r="C12">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D12">
-        <v>1.5625</v>
+        <v>0.6696428571428571</v>
       </c>
       <c r="E12">
         <v>244</v>
       </c>
       <c r="F12">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="G12">
-        <v>8.482142857142858</v>
+        <v>0.8928571428571428</v>
       </c>
       <c r="H12">
         <v>331</v>
@@ -11758,19 +11758,19 @@
         <v>18</v>
       </c>
       <c r="C14">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D14">
-        <v>2.455357142857143</v>
+        <v>1.5625</v>
       </c>
       <c r="E14">
         <v>227</v>
       </c>
       <c r="F14">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G14">
-        <v>3.571428571428571</v>
+        <v>2.455357142857143</v>
       </c>
       <c r="H14">
         <v>176</v>
@@ -11796,19 +11796,19 @@
         <v>34</v>
       </c>
       <c r="C15">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="D15">
-        <v>8.928571428571429</v>
+        <v>2.232142857142857</v>
       </c>
       <c r="E15">
         <v>448</v>
       </c>
       <c r="F15">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="G15">
-        <v>8.928571428571429</v>
+        <v>2.232142857142857</v>
       </c>
       <c r="H15">
         <v>348</v>
@@ -11837,19 +11837,19 @@
         <v>36</v>
       </c>
       <c r="C16">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="D16">
-        <v>9.821428571428571</v>
+        <v>2.678571428571428</v>
       </c>
       <c r="E16">
         <v>448</v>
       </c>
       <c r="F16">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="G16">
-        <v>9.821428571428571</v>
+        <v>2.678571428571428</v>
       </c>
       <c r="H16">
         <v>399</v>
@@ -11887,10 +11887,10 @@
         <v>246</v>
       </c>
       <c r="F17">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G17">
-        <v>1.339285714285714</v>
+        <v>0.6696428571428571</v>
       </c>
       <c r="H17">
         <v>130</v>
@@ -12030,19 +12030,19 @@
         <v>21</v>
       </c>
       <c r="C21">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D21">
-        <v>3.571428571428571</v>
+        <v>1.785714285714286</v>
       </c>
       <c r="E21">
         <v>448</v>
       </c>
       <c r="F21">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="G21">
-        <v>3.571428571428571</v>
+        <v>1.785714285714286</v>
       </c>
       <c r="H21">
         <v>395</v>
@@ -12125,19 +12125,19 @@
         <v>14</v>
       </c>
       <c r="C2">
-        <v>52</v>
+        <v>6</v>
       </c>
       <c r="D2">
-        <v>11.60714285714286</v>
+        <v>1.339285714285714</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>52</v>
+        <v>6</v>
       </c>
       <c r="G2">
-        <v>11.60714285714286</v>
+        <v>1.339285714285714</v>
       </c>
       <c r="H2">
         <v>229</v>
@@ -12201,19 +12201,19 @@
         <v>18</v>
       </c>
       <c r="C4">
-        <v>352</v>
+        <v>18</v>
       </c>
       <c r="D4">
-        <v>78.57142857142857</v>
+        <v>4.017857142857143</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>352</v>
+        <v>18</v>
       </c>
       <c r="G4">
-        <v>78.57142857142857</v>
+        <v>4.017857142857143</v>
       </c>
       <c r="H4">
         <v>439</v>
@@ -12239,19 +12239,19 @@
         <v>18</v>
       </c>
       <c r="C5">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="D5">
-        <v>5.133928571428571</v>
+        <v>0.6696428571428571</v>
       </c>
       <c r="E5">
         <v>229</v>
       </c>
       <c r="F5">
-        <v>61</v>
+        <v>5</v>
       </c>
       <c r="G5">
-        <v>13.61607142857143</v>
+        <v>1.116071428571429</v>
       </c>
       <c r="H5">
         <v>420</v>
@@ -12277,19 +12277,19 @@
         <v>21</v>
       </c>
       <c r="C6">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D6">
-        <v>1.5625</v>
+        <v>0.8928571428571428</v>
       </c>
       <c r="E6">
         <v>448</v>
       </c>
       <c r="F6">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G6">
-        <v>1.5625</v>
+        <v>0.8928571428571428</v>
       </c>
       <c r="H6">
         <v>395</v>
@@ -12318,19 +12318,19 @@
         <v>23</v>
       </c>
       <c r="C7">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="D7">
-        <v>4.017857142857143</v>
+        <v>0.4464285714285714</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="G7">
-        <v>4.017857142857143</v>
+        <v>0.4464285714285714</v>
       </c>
       <c r="H7">
         <v>148</v>
@@ -12432,19 +12432,19 @@
         <v>25</v>
       </c>
       <c r="C10">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D10">
-        <v>2.455357142857143</v>
+        <v>2.232142857142857</v>
       </c>
       <c r="E10">
         <v>223</v>
       </c>
       <c r="F10">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="G10">
-        <v>10.04464285714286</v>
+        <v>3.348214285714286</v>
       </c>
       <c r="H10">
         <v>336</v>
@@ -12479,10 +12479,10 @@
         <v>86</v>
       </c>
       <c r="F11">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>3.125</v>
+        <v>0.2232142857142857</v>
       </c>
       <c r="H11">
         <v>224</v>
@@ -12508,19 +12508,19 @@
         <v>25</v>
       </c>
       <c r="C12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D12">
-        <v>0.4464285714285714</v>
+        <v>0.2232142857142857</v>
       </c>
       <c r="E12">
         <v>244</v>
       </c>
       <c r="F12">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>6.473214285714286</v>
+        <v>0.2232142857142857</v>
       </c>
       <c r="H12">
         <v>331</v>
@@ -12584,19 +12584,19 @@
         <v>18</v>
       </c>
       <c r="C14">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D14">
-        <v>5.133928571428571</v>
+        <v>3.125</v>
       </c>
       <c r="E14">
         <v>227</v>
       </c>
       <c r="F14">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="G14">
-        <v>6.919642857142858</v>
+        <v>4.6875</v>
       </c>
       <c r="H14">
         <v>176</v>
@@ -12622,19 +12622,19 @@
         <v>34</v>
       </c>
       <c r="C15">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="D15">
-        <v>6.25</v>
+        <v>1.339285714285714</v>
       </c>
       <c r="E15">
         <v>448</v>
       </c>
       <c r="F15">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="G15">
-        <v>6.25</v>
+        <v>1.339285714285714</v>
       </c>
       <c r="H15">
         <v>348</v>
@@ -12663,19 +12663,19 @@
         <v>36</v>
       </c>
       <c r="C16">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="D16">
-        <v>6.919642857142858</v>
+        <v>1.785714285714286</v>
       </c>
       <c r="E16">
         <v>448</v>
       </c>
       <c r="F16">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="G16">
-        <v>6.919642857142858</v>
+        <v>1.785714285714286</v>
       </c>
       <c r="H16">
         <v>399</v>
@@ -12704,19 +12704,19 @@
         <v>23</v>
       </c>
       <c r="C17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D17">
-        <v>0.6696428571428571</v>
+        <v>0.4464285714285714</v>
       </c>
       <c r="E17">
         <v>246</v>
       </c>
       <c r="F17">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G17">
-        <v>1.5625</v>
+        <v>0.6696428571428571</v>
       </c>
       <c r="H17">
         <v>130</v>
@@ -12856,19 +12856,19 @@
         <v>21</v>
       </c>
       <c r="C21">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D21">
-        <v>3.571428571428571</v>
+        <v>1.785714285714286</v>
       </c>
       <c r="E21">
         <v>448</v>
       </c>
       <c r="F21">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="G21">
-        <v>3.571428571428571</v>
+        <v>1.785714285714286</v>
       </c>
       <c r="H21">
         <v>395</v>
@@ -13258,19 +13258,19 @@
         <v>25</v>
       </c>
       <c r="C10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D10">
-        <v>0.8928571428571428</v>
+        <v>1.116071428571429</v>
       </c>
       <c r="E10">
         <v>223</v>
       </c>
       <c r="F10">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G10">
-        <v>1.116071428571429</v>
+        <v>1.5625</v>
       </c>
       <c r="H10">
         <v>5</v>
@@ -14603,19 +14603,19 @@
         <v>14</v>
       </c>
       <c r="C2">
-        <v>52</v>
+        <v>6</v>
       </c>
       <c r="D2">
-        <v>11.60714285714286</v>
+        <v>1.339285714285714</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>52</v>
+        <v>6</v>
       </c>
       <c r="G2">
-        <v>11.60714285714286</v>
+        <v>1.339285714285714</v>
       </c>
       <c r="H2">
         <v>229</v>
@@ -14679,19 +14679,19 @@
         <v>18</v>
       </c>
       <c r="C4">
-        <v>412</v>
+        <v>7</v>
       </c>
       <c r="D4">
-        <v>91.96428571428571</v>
+        <v>1.5625</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>412</v>
+        <v>7</v>
       </c>
       <c r="G4">
-        <v>91.96428571428571</v>
+        <v>1.5625</v>
       </c>
       <c r="H4">
         <v>439</v>
@@ -14717,19 +14717,19 @@
         <v>18</v>
       </c>
       <c r="C5">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="D5">
-        <v>3.348214285714286</v>
+        <v>0.4464285714285714</v>
       </c>
       <c r="E5">
         <v>229</v>
       </c>
       <c r="F5">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="G5">
-        <v>8.928571428571429</v>
+        <v>0.6696428571428571</v>
       </c>
       <c r="H5">
         <v>420</v>
@@ -14755,19 +14755,19 @@
         <v>21</v>
       </c>
       <c r="C6">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D6">
-        <v>1.339285714285714</v>
+        <v>0.8928571428571428</v>
       </c>
       <c r="E6">
         <v>448</v>
       </c>
       <c r="F6">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G6">
-        <v>1.339285714285714</v>
+        <v>0.8928571428571428</v>
       </c>
       <c r="H6">
         <v>395</v>
@@ -14796,19 +14796,19 @@
         <v>23</v>
       </c>
       <c r="C7">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="D7">
-        <v>3.794642857142857</v>
+        <v>0.4464285714285714</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="G7">
-        <v>3.794642857142857</v>
+        <v>0.4464285714285714</v>
       </c>
       <c r="H7">
         <v>148</v>
@@ -14910,19 +14910,19 @@
         <v>25</v>
       </c>
       <c r="C10">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D10">
-        <v>3.125</v>
+        <v>2.901785714285714</v>
       </c>
       <c r="E10">
         <v>223</v>
       </c>
       <c r="F10">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="G10">
-        <v>11.38392857142857</v>
+        <v>4.464285714285714</v>
       </c>
       <c r="H10">
         <v>336</v>
@@ -14957,10 +14957,10 @@
         <v>86</v>
       </c>
       <c r="F11">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="G11">
-        <v>5.357142857142857</v>
+        <v>0.6696428571428571</v>
       </c>
       <c r="H11">
         <v>224</v>
@@ -14986,19 +14986,19 @@
         <v>25</v>
       </c>
       <c r="C12">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D12">
-        <v>1.5625</v>
+        <v>0.6696428571428571</v>
       </c>
       <c r="E12">
         <v>244</v>
       </c>
       <c r="F12">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="G12">
-        <v>8.482142857142858</v>
+        <v>0.8928571428571428</v>
       </c>
       <c r="H12">
         <v>331</v>
@@ -15062,19 +15062,19 @@
         <v>18</v>
       </c>
       <c r="C14">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D14">
-        <v>2.455357142857143</v>
+        <v>1.5625</v>
       </c>
       <c r="E14">
         <v>227</v>
       </c>
       <c r="F14">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G14">
-        <v>3.571428571428571</v>
+        <v>2.455357142857143</v>
       </c>
       <c r="H14">
         <v>176</v>
@@ -15100,19 +15100,19 @@
         <v>34</v>
       </c>
       <c r="C15">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="D15">
-        <v>8.928571428571429</v>
+        <v>2.232142857142857</v>
       </c>
       <c r="E15">
         <v>448</v>
       </c>
       <c r="F15">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="G15">
-        <v>8.928571428571429</v>
+        <v>2.232142857142857</v>
       </c>
       <c r="H15">
         <v>348</v>
@@ -15141,19 +15141,19 @@
         <v>36</v>
       </c>
       <c r="C16">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="D16">
-        <v>9.821428571428571</v>
+        <v>2.678571428571428</v>
       </c>
       <c r="E16">
         <v>448</v>
       </c>
       <c r="F16">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="G16">
-        <v>9.821428571428571</v>
+        <v>2.678571428571428</v>
       </c>
       <c r="H16">
         <v>399</v>
@@ -15191,10 +15191,10 @@
         <v>246</v>
       </c>
       <c r="F17">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G17">
-        <v>1.339285714285714</v>
+        <v>0.6696428571428571</v>
       </c>
       <c r="H17">
         <v>130</v>
@@ -15334,19 +15334,19 @@
         <v>21</v>
       </c>
       <c r="C21">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D21">
-        <v>3.571428571428571</v>
+        <v>1.785714285714286</v>
       </c>
       <c r="E21">
         <v>448</v>
       </c>
       <c r="F21">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="G21">
-        <v>3.571428571428571</v>
+        <v>1.785714285714286</v>
       </c>
       <c r="H21">
         <v>395</v>
@@ -15429,19 +15429,19 @@
         <v>14</v>
       </c>
       <c r="C2">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="D2">
-        <v>11.16071428571429</v>
+        <v>1.339285714285714</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="G2">
-        <v>11.16071428571429</v>
+        <v>1.339285714285714</v>
       </c>
       <c r="H2">
         <v>225</v>
@@ -15505,19 +15505,19 @@
         <v>18</v>
       </c>
       <c r="C4">
-        <v>309</v>
+        <v>6</v>
       </c>
       <c r="D4">
-        <v>68.97321428571429</v>
+        <v>1.339285714285714</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>309</v>
+        <v>6</v>
       </c>
       <c r="G4">
-        <v>68.97321428571429</v>
+        <v>1.339285714285714</v>
       </c>
       <c r="H4">
         <v>439</v>
@@ -15543,19 +15543,19 @@
         <v>18</v>
       </c>
       <c r="C5">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D5">
-        <v>3.125</v>
+        <v>0.4464285714285714</v>
       </c>
       <c r="E5">
         <v>229</v>
       </c>
       <c r="F5">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="G5">
-        <v>8.482142857142858</v>
+        <v>0.6696428571428571</v>
       </c>
       <c r="H5">
         <v>420</v>
@@ -15581,19 +15581,19 @@
         <v>21</v>
       </c>
       <c r="C6">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D6">
-        <v>1.339285714285714</v>
+        <v>0.4464285714285714</v>
       </c>
       <c r="E6">
         <v>448</v>
       </c>
       <c r="F6">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G6">
-        <v>1.339285714285714</v>
+        <v>0.4464285714285714</v>
       </c>
       <c r="H6">
         <v>374</v>
@@ -15736,19 +15736,19 @@
         <v>25</v>
       </c>
       <c r="C10">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D10">
-        <v>2.455357142857143</v>
+        <v>2.232142857142857</v>
       </c>
       <c r="E10">
         <v>223</v>
       </c>
       <c r="F10">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="G10">
-        <v>6.919642857142858</v>
+        <v>3.125</v>
       </c>
       <c r="H10">
         <v>334</v>
@@ -15812,19 +15812,19 @@
         <v>25</v>
       </c>
       <c r="C12">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D12">
-        <v>1.116071428571429</v>
+        <v>0.6696428571428571</v>
       </c>
       <c r="E12">
         <v>244</v>
       </c>
       <c r="F12">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G12">
-        <v>1.5625</v>
+        <v>0.8928571428571428</v>
       </c>
       <c r="H12">
         <v>302</v>
@@ -15926,19 +15926,19 @@
         <v>34</v>
       </c>
       <c r="C15">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="D15">
-        <v>6.696428571428571</v>
+        <v>1.785714285714286</v>
       </c>
       <c r="E15">
         <v>448</v>
       </c>
       <c r="F15">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="G15">
-        <v>6.696428571428571</v>
+        <v>1.785714285714286</v>
       </c>
       <c r="H15">
         <v>328</v>
@@ -15967,19 +15967,19 @@
         <v>36</v>
       </c>
       <c r="C16">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="D16">
-        <v>7.142857142857142</v>
+        <v>2.678571428571428</v>
       </c>
       <c r="E16">
         <v>448</v>
       </c>
       <c r="F16">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="G16">
-        <v>7.142857142857142</v>
+        <v>2.678571428571428</v>
       </c>
       <c r="H16">
         <v>395</v>
@@ -16369,19 +16369,19 @@
         <v>18</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D5">
-        <v>0.6696428571428571</v>
+        <v>0.4464285714285714</v>
       </c>
       <c r="E5">
         <v>229</v>
       </c>
       <c r="F5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G5">
-        <v>1.116071428571429</v>
+        <v>0.6696428571428571</v>
       </c>
       <c r="H5">
         <v>63</v>
@@ -16562,19 +16562,19 @@
         <v>25</v>
       </c>
       <c r="C10">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="D10">
-        <v>9.598214285714286</v>
+        <v>5.357142857142857</v>
       </c>
       <c r="E10">
         <v>223</v>
       </c>
       <c r="F10">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="G10">
-        <v>12.72321428571428</v>
+        <v>7.366071428571429</v>
       </c>
       <c r="H10">
         <v>88</v>
@@ -16752,19 +16752,19 @@
         <v>34</v>
       </c>
       <c r="C15">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D15">
-        <v>1.785714285714286</v>
+        <v>2.232142857142857</v>
       </c>
       <c r="E15">
         <v>448</v>
       </c>
       <c r="F15">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G15">
-        <v>1.785714285714286</v>
+        <v>2.232142857142857</v>
       </c>
       <c r="H15">
         <v>15</v>
@@ -17350,19 +17350,19 @@
         <v>16</v>
       </c>
       <c r="C9">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D9">
-        <v>1.5625</v>
+        <v>1.339285714285714</v>
       </c>
       <c r="E9">
         <v>288</v>
       </c>
       <c r="F9">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G9">
-        <v>2.008928571428572</v>
+        <v>1.785714285714286</v>
       </c>
       <c r="H9">
         <v>9</v>
@@ -17388,19 +17388,19 @@
         <v>25</v>
       </c>
       <c r="C10">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="D10">
-        <v>9.598214285714286</v>
+        <v>7.366071428571429</v>
       </c>
       <c r="E10">
         <v>223</v>
       </c>
       <c r="F10">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="G10">
-        <v>13.61607142857143</v>
+        <v>9.821428571428571</v>
       </c>
       <c r="H10">
         <v>88</v>
@@ -17464,19 +17464,19 @@
         <v>25</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D12">
-        <v>0.2232142857142857</v>
+        <v>0.6696428571428571</v>
       </c>
       <c r="E12">
         <v>244</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G12">
-        <v>0.2232142857142857</v>
+        <v>0.8928571428571428</v>
       </c>
       <c r="H12">
         <v>63</v>
@@ -20692,19 +20692,19 @@
         <v>25</v>
       </c>
       <c r="C10">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D10">
-        <v>10.9375</v>
+        <v>9.598214285714286</v>
       </c>
       <c r="E10">
         <v>223</v>
       </c>
       <c r="F10">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="G10">
-        <v>15.17857142857143</v>
+        <v>13.83928571428572</v>
       </c>
       <c r="H10">
         <v>90</v>
@@ -20882,19 +20882,19 @@
         <v>34</v>
       </c>
       <c r="C15">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D15">
-        <v>1.785714285714286</v>
+        <v>2.232142857142857</v>
       </c>
       <c r="E15">
         <v>448</v>
       </c>
       <c r="F15">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G15">
-        <v>1.785714285714286</v>
+        <v>2.232142857142857</v>
       </c>
       <c r="H15">
         <v>15</v>
@@ -21363,19 +21363,19 @@
         <v>21</v>
       </c>
       <c r="C6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D6">
-        <v>0.8928571428571428</v>
+        <v>0.4464285714285714</v>
       </c>
       <c r="E6">
         <v>448</v>
       </c>
       <c r="F6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G6">
-        <v>0.8928571428571428</v>
+        <v>0.4464285714285714</v>
       </c>
       <c r="H6">
         <v>6</v>
@@ -21518,10 +21518,10 @@
         <v>25</v>
       </c>
       <c r="C10">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="D10">
-        <v>5.133928571428571</v>
+        <v>1.5625</v>
       </c>
       <c r="E10">
         <v>223</v>
@@ -22863,19 +22863,19 @@
         <v>14</v>
       </c>
       <c r="C2">
-        <v>52</v>
+        <v>6</v>
       </c>
       <c r="D2">
-        <v>11.60714285714286</v>
+        <v>1.339285714285714</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>52</v>
+        <v>6</v>
       </c>
       <c r="G2">
-        <v>11.60714285714286</v>
+        <v>1.339285714285714</v>
       </c>
       <c r="H2">
         <v>229</v>
@@ -22939,19 +22939,19 @@
         <v>18</v>
       </c>
       <c r="C4">
-        <v>412</v>
+        <v>7</v>
       </c>
       <c r="D4">
-        <v>91.96428571428571</v>
+        <v>1.5625</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>412</v>
+        <v>7</v>
       </c>
       <c r="G4">
-        <v>91.96428571428571</v>
+        <v>1.5625</v>
       </c>
       <c r="H4">
         <v>439</v>
@@ -22977,19 +22977,19 @@
         <v>18</v>
       </c>
       <c r="C5">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="D5">
-        <v>3.348214285714286</v>
+        <v>0.4464285714285714</v>
       </c>
       <c r="E5">
         <v>229</v>
       </c>
       <c r="F5">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="G5">
-        <v>8.928571428571429</v>
+        <v>0.6696428571428571</v>
       </c>
       <c r="H5">
         <v>420</v>
@@ -23015,19 +23015,19 @@
         <v>21</v>
       </c>
       <c r="C6">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D6">
-        <v>1.339285714285714</v>
+        <v>0.8928571428571428</v>
       </c>
       <c r="E6">
         <v>448</v>
       </c>
       <c r="F6">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G6">
-        <v>1.339285714285714</v>
+        <v>0.8928571428571428</v>
       </c>
       <c r="H6">
         <v>395</v>
@@ -23056,19 +23056,19 @@
         <v>23</v>
       </c>
       <c r="C7">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="D7">
-        <v>3.794642857142857</v>
+        <v>0.4464285714285714</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="G7">
-        <v>3.794642857142857</v>
+        <v>0.4464285714285714</v>
       </c>
       <c r="H7">
         <v>148</v>
@@ -23170,19 +23170,19 @@
         <v>25</v>
       </c>
       <c r="C10">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D10">
-        <v>3.125</v>
+        <v>2.901785714285714</v>
       </c>
       <c r="E10">
         <v>223</v>
       </c>
       <c r="F10">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="G10">
-        <v>11.38392857142857</v>
+        <v>4.464285714285714</v>
       </c>
       <c r="H10">
         <v>336</v>
@@ -23217,10 +23217,10 @@
         <v>86</v>
       </c>
       <c r="F11">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="G11">
-        <v>5.357142857142857</v>
+        <v>0.6696428571428571</v>
       </c>
       <c r="H11">
         <v>224</v>
@@ -23246,19 +23246,19 @@
         <v>25</v>
       </c>
       <c r="C12">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D12">
-        <v>1.5625</v>
+        <v>0.6696428571428571</v>
       </c>
       <c r="E12">
         <v>244</v>
       </c>
       <c r="F12">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="G12">
-        <v>8.482142857142858</v>
+        <v>0.8928571428571428</v>
       </c>
       <c r="H12">
         <v>331</v>
@@ -23322,19 +23322,19 @@
         <v>18</v>
       </c>
       <c r="C14">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D14">
-        <v>2.455357142857143</v>
+        <v>1.5625</v>
       </c>
       <c r="E14">
         <v>227</v>
       </c>
       <c r="F14">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G14">
-        <v>3.571428571428571</v>
+        <v>2.455357142857143</v>
       </c>
       <c r="H14">
         <v>176</v>
@@ -23360,19 +23360,19 @@
         <v>34</v>
       </c>
       <c r="C15">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="D15">
-        <v>8.928571428571429</v>
+        <v>2.232142857142857</v>
       </c>
       <c r="E15">
         <v>448</v>
       </c>
       <c r="F15">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="G15">
-        <v>8.928571428571429</v>
+        <v>2.232142857142857</v>
       </c>
       <c r="H15">
         <v>348</v>
@@ -23401,19 +23401,19 @@
         <v>36</v>
       </c>
       <c r="C16">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="D16">
-        <v>9.821428571428571</v>
+        <v>2.678571428571428</v>
       </c>
       <c r="E16">
         <v>448</v>
       </c>
       <c r="F16">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="G16">
-        <v>9.821428571428571</v>
+        <v>2.678571428571428</v>
       </c>
       <c r="H16">
         <v>399</v>
@@ -23451,10 +23451,10 @@
         <v>246</v>
       </c>
       <c r="F17">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G17">
-        <v>1.339285714285714</v>
+        <v>0.6696428571428571</v>
       </c>
       <c r="H17">
         <v>130</v>
@@ -23594,19 +23594,19 @@
         <v>21</v>
       </c>
       <c r="C21">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D21">
-        <v>3.571428571428571</v>
+        <v>1.785714285714286</v>
       </c>
       <c r="E21">
         <v>448</v>
       </c>
       <c r="F21">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="G21">
-        <v>3.571428571428571</v>
+        <v>1.785714285714286</v>
       </c>
       <c r="H21">
         <v>395</v>
@@ -23689,19 +23689,19 @@
         <v>14</v>
       </c>
       <c r="C2">
-        <v>101</v>
+        <v>6</v>
       </c>
       <c r="D2">
-        <v>22.54464285714286</v>
+        <v>1.339285714285714</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>101</v>
+        <v>6</v>
       </c>
       <c r="G2">
-        <v>22.54464285714286</v>
+        <v>1.339285714285714</v>
       </c>
       <c r="H2">
         <v>229</v>
@@ -23765,19 +23765,19 @@
         <v>18</v>
       </c>
       <c r="C4">
-        <v>412</v>
+        <v>7</v>
       </c>
       <c r="D4">
-        <v>91.96428571428571</v>
+        <v>1.5625</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>412</v>
+        <v>7</v>
       </c>
       <c r="G4">
-        <v>91.96428571428571</v>
+        <v>1.5625</v>
       </c>
       <c r="H4">
         <v>439</v>
@@ -23803,19 +23803,19 @@
         <v>18</v>
       </c>
       <c r="C5">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D5">
-        <v>2.678571428571428</v>
+        <v>0.4464285714285714</v>
       </c>
       <c r="E5">
         <v>229</v>
       </c>
       <c r="F5">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="G5">
-        <v>7.8125</v>
+        <v>0.6696428571428571</v>
       </c>
       <c r="H5">
         <v>420</v>
@@ -23882,19 +23882,19 @@
         <v>23</v>
       </c>
       <c r="C7">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="D7">
-        <v>5.357142857142857</v>
+        <v>0.4464285714285714</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="G7">
-        <v>5.357142857142857</v>
+        <v>0.4464285714285714</v>
       </c>
       <c r="H7">
         <v>148</v>
@@ -23996,19 +23996,19 @@
         <v>25</v>
       </c>
       <c r="C10">
-        <v>91</v>
+        <v>48</v>
       </c>
       <c r="D10">
-        <v>20.3125</v>
+        <v>10.71428571428571</v>
       </c>
       <c r="E10">
         <v>223</v>
       </c>
       <c r="F10">
-        <v>203</v>
+        <v>72</v>
       </c>
       <c r="G10">
-        <v>45.3125</v>
+        <v>16.07142857142857</v>
       </c>
       <c r="H10">
         <v>336</v>
@@ -24043,10 +24043,10 @@
         <v>86</v>
       </c>
       <c r="F11">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="G11">
-        <v>5.803571428571429</v>
+        <v>0.6696428571428571</v>
       </c>
       <c r="H11">
         <v>224</v>
@@ -24072,19 +24072,19 @@
         <v>25</v>
       </c>
       <c r="C12">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D12">
-        <v>2.008928571428572</v>
+        <v>1.116071428571429</v>
       </c>
       <c r="E12">
         <v>244</v>
       </c>
       <c r="F12">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="G12">
-        <v>9.375</v>
+        <v>1.5625</v>
       </c>
       <c r="H12">
         <v>331</v>
@@ -24186,19 +24186,19 @@
         <v>34</v>
       </c>
       <c r="C15">
-        <v>132</v>
+        <v>10</v>
       </c>
       <c r="D15">
-        <v>29.46428571428572</v>
+        <v>2.232142857142857</v>
       </c>
       <c r="E15">
         <v>448</v>
       </c>
       <c r="F15">
-        <v>132</v>
+        <v>10</v>
       </c>
       <c r="G15">
-        <v>29.46428571428572</v>
+        <v>2.232142857142857</v>
       </c>
       <c r="H15">
         <v>348</v>
@@ -24227,19 +24227,19 @@
         <v>36</v>
       </c>
       <c r="C16">
-        <v>206</v>
+        <v>12</v>
       </c>
       <c r="D16">
-        <v>45.98214285714285</v>
+        <v>2.678571428571428</v>
       </c>
       <c r="E16">
         <v>448</v>
       </c>
       <c r="F16">
-        <v>206</v>
+        <v>12</v>
       </c>
       <c r="G16">
-        <v>45.98214285714285</v>
+        <v>2.678571428571428</v>
       </c>
       <c r="H16">
         <v>399</v>
@@ -24277,10 +24277,10 @@
         <v>246</v>
       </c>
       <c r="F17">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G17">
-        <v>1.339285714285714</v>
+        <v>0.6696428571428571</v>
       </c>
       <c r="H17">
         <v>130</v>
@@ -24420,19 +24420,19 @@
         <v>21</v>
       </c>
       <c r="C21">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D21">
-        <v>3.571428571428571</v>
+        <v>1.785714285714286</v>
       </c>
       <c r="E21">
         <v>448</v>
       </c>
       <c r="F21">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="G21">
-        <v>3.571428571428571</v>
+        <v>1.785714285714286</v>
       </c>
       <c r="H21">
         <v>395</v>
@@ -24629,19 +24629,19 @@
         <v>18</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D5">
-        <v>0.6696428571428571</v>
+        <v>0.4464285714285714</v>
       </c>
       <c r="E5">
         <v>229</v>
       </c>
       <c r="F5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G5">
-        <v>1.116071428571429</v>
+        <v>0.6696428571428571</v>
       </c>
       <c r="H5">
         <v>5</v>
@@ -24831,10 +24831,10 @@
         <v>223</v>
       </c>
       <c r="F10">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G10">
-        <v>2.232142857142857</v>
+        <v>2.008928571428572</v>
       </c>
       <c r="H10">
         <v>5</v>
